--- a/case_input.xlsx
+++ b/case_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kcaldeira\Google Drive\git\SEM-1.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53631BB7-2F39-4C3E-B541-670D326741ED}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDEEE82D-CD13-412A-8448-CBA1CDCE2C64}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25545" windowHeight="14520" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25545" windowHeight="14520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="177">
   <si>
     <t>This file is documentation for the input data format for the case definition file, used as input for the Simple Energy Model v 1.0</t>
   </si>
@@ -563,6 +563,12 @@
   </si>
   <si>
     <t>2013-2015</t>
+  </si>
+  <si>
+    <t>year_test_03</t>
+  </si>
+  <si>
+    <t>base_test</t>
   </si>
 </sst>
 </file>
@@ -6197,8 +6203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCAB1EB0-472A-4DD0-9E69-6F84B61B7AD5}">
   <dimension ref="A1:R108"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52:B53"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6407,7 +6413,7 @@
         <v>19</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>69</v>
+        <v>176</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>20</v>
@@ -7180,7 +7186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{283F1F5E-6617-4EDE-A41B-EADB501C3C26}">
   <dimension ref="A1:T142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+    <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
@@ -12325,8 +12331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00AC059B-0733-439F-A0DB-92535856A335}">
   <dimension ref="A1:T118"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="B110" sqref="B110"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12535,7 +12541,7 @@
         <v>19</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>20</v>

--- a/case_input.xlsx
+++ b/case_input.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kcaldeira\Google Drive\git\SEM-1.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB0A7F4-2D1E-4A1E-8294-B6660D11DCC2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8490E571-AF32-4A90-9097-ABD2F107115C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25550" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25550" windowHeight="14520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EIAbaseTest" sheetId="19" r:id="rId1"/>
-    <sheet name="EIAbaseTestMonth" sheetId="26" r:id="rId2"/>
-    <sheet name="testyears" sheetId="23" r:id="rId3"/>
-    <sheet name="test_decay" sheetId="25" r:id="rId4"/>
-    <sheet name="testScaling" sheetId="20" r:id="rId5"/>
-    <sheet name="baseScaling" sheetId="21" r:id="rId6"/>
-    <sheet name="nukeStorScaling" sheetId="22" r:id="rId7"/>
-    <sheet name="PGP storage decay test" sheetId="18" r:id="rId8"/>
+    <sheet name="carbon_cost_test" sheetId="27" r:id="rId2"/>
+    <sheet name="EIAbaseTestMonth" sheetId="26" r:id="rId3"/>
+    <sheet name="testyears" sheetId="23" r:id="rId4"/>
+    <sheet name="test_decay" sheetId="25" r:id="rId5"/>
+    <sheet name="testScaling" sheetId="20" r:id="rId6"/>
+    <sheet name="baseScaling" sheetId="21" r:id="rId7"/>
+    <sheet name="nukeStorScaling" sheetId="22" r:id="rId8"/>
+    <sheet name="PGP storage decay test" sheetId="18" r:id="rId9"/>
   </sheets>
   <calcPr calcId="179021" calcMode="manual"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="180">
   <si>
     <t>This file is documentation for the input data format for the case definition file, used as input for the Simple Energy Model v 1.0</t>
   </si>
@@ -496,15 +497,94 @@
   </si>
   <si>
     <t>EIAbaseTestMonth</t>
+  </si>
+  <si>
+    <t>FIXED_COST_NATGAS_CCS</t>
+  </si>
+  <si>
+    <t>VAR_COST_NATGAS_CCS</t>
+  </si>
+  <si>
+    <t>kgCO2/kWh dispatched</t>
+  </si>
+  <si>
+    <t>VAR_CO2_SOLAR</t>
+  </si>
+  <si>
+    <t>FIXED_CO2_SOLAR</t>
+  </si>
+  <si>
+    <t>kgCO2/kW capacity</t>
+  </si>
+  <si>
+    <t>CO2_COST * FIXED_CO2_SOLAR is added to fixed cost</t>
+  </si>
+  <si>
+    <t>CO2_COST * VAR_CO2_SOLAR is added to variable cost</t>
+  </si>
+  <si>
+    <t>FIXED_CO2_WIND</t>
+  </si>
+  <si>
+    <t>VAR_CO2_WIND</t>
+  </si>
+  <si>
+    <t>FIXED_CO2_NATGAS</t>
+  </si>
+  <si>
+    <t>VAR_CO2_NATGAS</t>
+  </si>
+  <si>
+    <t>FIXED_CO2_NATGAS_CCS</t>
+  </si>
+  <si>
+    <t>VAR_CO2_NATGAS_CCS</t>
+  </si>
+  <si>
+    <t>FIXED_CO2_NUCLEAR</t>
+  </si>
+  <si>
+    <t>VAR_CO2_NUCLEAR</t>
+  </si>
+  <si>
+    <t>CO2_PRICE</t>
+  </si>
+  <si>
+    <t>$/kgCO2:  CO2 price to be used for fixed and variable co2 emissions</t>
+  </si>
+  <si>
+    <t>CO2_COST * VAR_CO2_SOLAR is added to variable cost, source for natgas is https://en.wikipedia.org/wiki/Life-cycle_greenhouse-gas_emissions_of_energy_sources</t>
+  </si>
+  <si>
+    <t>CO2_COST * VAR_CO2_SOLAR is added to variable cost,source for natgas_ccs is https://en.wikipedia.org/wiki/Life-cycle_greenhouse-gas_emissions_of_energy_sources</t>
+  </si>
+  <si>
+    <t>$/kgCO2:  CO2 price to be used for fixed and variable co2 emissions, default is $100 per tonCO2</t>
+  </si>
+  <si>
+    <t>P0000</t>
+  </si>
+  <si>
+    <t>P0010</t>
+  </si>
+  <si>
+    <t>P0100</t>
+  </si>
+  <si>
+    <t>P1000</t>
+  </si>
+  <si>
+    <t>test_price_co2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -1001,7 +1081,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1042,6 +1122,9 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="11" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1397,10 +1480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{528F748F-2438-463B-BA5E-87C8F32FAD91}">
-  <dimension ref="A1:R112"/>
+  <dimension ref="A1:R127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1791,7 +1874,7 @@
       </c>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
         <v>37</v>
       </c>
@@ -1803,7 +1886,7 @@
       </c>
       <c r="D65" s="2"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
         <v>38</v>
       </c>
@@ -1815,7 +1898,7 @@
       </c>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
         <v>39</v>
       </c>
@@ -1827,7 +1910,7 @@
       </c>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
         <v>40</v>
       </c>
@@ -1839,162 +1922,164 @@
       </c>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="5"/>
       <c r="B69" s="12"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B70" s="12">
+        <v>0</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="5"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B70" s="12" t="s">
+      <c r="B72" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" s="5" t="s">
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B71" s="14">
+      <c r="B73" s="14">
         <v>2.4911838084243729E-2</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C73" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D73" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" s="5" t="s">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B72" s="13">
+      <c r="B74" s="13">
         <f>0.00000001</f>
         <v>1E-8</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C74" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D72" s="2"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" s="5"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B74" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C74" s="2"/>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B75" s="14">
-        <v>2.0648572594225215E-2</v>
+        <v>158</v>
+      </c>
+      <c r="B75" s="13">
+        <v>0</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>65</v>
+        <v>159</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
-        <v>84</v>
+        <v>157</v>
       </c>
       <c r="B76" s="13">
-        <v>1.0999999999999999E-8</v>
+        <v>0</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D76" s="2"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="5"/>
       <c r="B77" s="12"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B78" s="14">
-        <v>1.1841887362491711E-2</v>
-      </c>
-      <c r="C78" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B79" s="14">
+        <v>2.0648572594225215E-2</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D78" s="16">
-        <v>2.7271220888813726E-2</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B79" s="14">
-        <v>2.2590009128958689E-2</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D79" s="16">
-        <v>2.9679010772171249E-2</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80" s="5"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="2"/>
+      <c r="D79" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" s="13">
+        <v>1.0999999999999999E-8</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="D80" s="2"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B81" s="14">
-        <v>6.2433901191501419E-2</v>
+        <v>162</v>
+      </c>
+      <c r="B81" s="13">
+        <v>0</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>65</v>
+        <v>159</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>69</v>
+        <v>160</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B82" s="14">
-        <v>2.5158160216169324E-2</v>
+        <v>163</v>
+      </c>
+      <c r="B82" s="13">
+        <v>0</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D82" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="5"/>
@@ -2004,403 +2089,599 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B84" s="12">
-        <f>261*0.08/8760</f>
-        <v>2.3835616438356165E-3</v>
+        <v>95</v>
+      </c>
+      <c r="B84" s="14">
+        <v>1.1841887362491711E-2</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
+      </c>
+      <c r="D84" s="16">
+        <v>2.7271220888813726E-2</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B85" s="12">
-        <v>0</v>
+        <v>85</v>
+      </c>
+      <c r="B85" s="14">
+        <v>2.2590009128958689E-2</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D85" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="D85" s="16">
+        <v>2.9679010772171249E-2</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B86" s="12">
+        <v>164</v>
+      </c>
+      <c r="B86" s="13">
         <v>0</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D86" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B87" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-    </row>
-    <row r="88" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B88" s="12">
-        <f>1.01^(1/(24*365.24/12))-1</f>
-        <v>1.3621726294266168E-5</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>48</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="B87" s="18">
+        <v>0.49</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" s="5"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="2"/>
       <c r="D88" s="2"/>
-      <c r="E88" s="1" t="s">
-        <v>105</v>
-      </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B89" s="12">
-        <v>6</v>
+        <v>154</v>
+      </c>
+      <c r="B89" s="14">
+        <v>2.7271220888813726E-2</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
+      </c>
+      <c r="D89" s="16">
+        <v>2.7271220888813726E-2</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A90" s="5"/>
-      <c r="B90" s="12"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
+      <c r="A90" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B90" s="14">
+        <v>2.9679010772171249E-2</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D90" s="16">
+        <v>2.9679010772171249E-2</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B91" s="12">
-        <v>2.7397260273972604E-6</v>
+        <v>166</v>
+      </c>
+      <c r="B91" s="13">
+        <v>0</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D91" s="12">
-        <f>0.3*0.08/8760</f>
-        <v>2.7397260273972604E-6</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>76</v>
+        <v>159</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B92" s="12">
-        <f>1100*0.08/8760</f>
-        <v>1.0045662100456621E-2</v>
+        <v>167</v>
+      </c>
+      <c r="B92" s="18">
+        <v>0.17</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>65</v>
+        <v>156</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>65</v>
+        <v>173</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A93" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B93" s="12">
-        <f>4600*0.08/8760</f>
-        <v>4.2009132420091327E-2</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="A93" s="5"/>
+      <c r="B93" s="12"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B94" s="12">
-        <v>0</v>
+        <v>96</v>
+      </c>
+      <c r="B94" s="14">
+        <v>6.2433901191501419E-2</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D94" s="2"/>
+      <c r="D94" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B95" s="12">
+        <v>86</v>
+      </c>
+      <c r="B95" s="14">
+        <v>2.5158160216169324E-2</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D95" s="2"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B96" s="13">
         <v>0</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D95" s="2"/>
-    </row>
-    <row r="96" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B96" s="12">
-        <v>1.1351367708023474E-6</v>
-      </c>
       <c r="C96" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D96" s="12">
-        <f>1.01^(1/(24*365.24))-1</f>
-        <v>1.1351367708023474E-6</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.35">
+        <v>159</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B97" s="12">
-        <v>0.3</v>
-      </c>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+      <c r="B97" s="13">
+        <v>0</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="5"/>
       <c r="B98" s="12"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99" s="12">
+        <f>261*0.08/8760</f>
+        <v>2.3835616438356165E-3</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B100" s="12">
+        <v>0</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D100" s="2"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B101" s="12">
+        <v>0</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D101" s="2"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B102" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+    </row>
+    <row r="103" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B103" s="12">
+        <f>1.01^(1/(24*365.24/12))-1</f>
+        <v>1.3621726294266168E-5</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B104" s="12">
+        <v>6</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105" s="5"/>
+      <c r="B105" s="12"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B106" s="12">
+        <v>2.7397260273972604E-6</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D106" s="12">
+        <f>0.3*0.08/8760</f>
+        <v>2.7397260273972604E-6</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B107" s="12">
+        <f>1100*0.08/8760</f>
+        <v>1.0045662100456621E-2</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B108" s="12">
+        <f>4600*0.08/8760</f>
+        <v>4.2009132420091327E-2</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B109" s="12">
+        <v>0</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D109" s="2"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B110" s="12">
+        <v>0</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D110" s="2"/>
+    </row>
+    <row r="111" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B111" s="12">
+        <v>1.1351367708023474E-6</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D111" s="12">
+        <f>1.01^(1/(24*365.24))-1</f>
+        <v>1.1351367708023474E-6</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B112" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A113" s="5"/>
+      <c r="B113" s="12"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A114" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B99" s="12">
+      <c r="B114" s="12">
         <v>10</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C114" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D99" s="2"/>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="C100" s="10"/>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="C101" s="2" t="s">
+      <c r="D114" s="2"/>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="C115" s="10"/>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="C116" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="102" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="3" t="s">
+    <row r="117" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B102" s="11" t="s">
+      <c r="B117" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C102" s="4"/>
-    </row>
-    <row r="103" spans="1:18" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A103" s="5" t="s">
+      <c r="C117" s="4"/>
+    </row>
+    <row r="118" spans="1:18" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A118" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B118" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C103" s="5" t="s">
+      <c r="C118" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D103" s="5" t="s">
+      <c r="D118" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E103" s="5" t="s">
+      <c r="E118" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F103" s="5" t="s">
+      <c r="F118" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="G103" s="5" t="s">
+      <c r="G118" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H103" s="5" t="s">
+      <c r="H118" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="I103" s="5" t="s">
+      <c r="I118" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="J103" s="5" t="s">
+      <c r="J118" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="K103" s="5" t="s">
+      <c r="K118" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="L103" s="5" t="s">
+      <c r="L118" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="M103" s="5" t="s">
+      <c r="M118" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="N103" s="5" t="s">
+      <c r="N118" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="O103" s="5" t="s">
+      <c r="O118" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P103" s="5" t="s">
+      <c r="P118" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="Q103" s="5" t="s">
+      <c r="Q118" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="R103" s="5" t="s">
+      <c r="R118" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="15" t="s">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B119" s="1"/>
+    </row>
+    <row r="120" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="B105" s="15">
+      <c r="B120" s="15">
         <v>0.6</v>
       </c>
-      <c r="C105" s="15">
+      <c r="C120" s="15">
         <v>0.6</v>
       </c>
-      <c r="D105" s="15">
-        <v>1</v>
-      </c>
-      <c r="E105" s="15">
-        <v>1</v>
-      </c>
-      <c r="F105" s="15">
+      <c r="D120" s="15">
+        <v>1</v>
+      </c>
+      <c r="E120" s="15">
+        <v>1</v>
+      </c>
+      <c r="F120" s="15">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G105" s="15">
+      <c r="G120" s="15">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H105" s="15">
+      <c r="H120" s="15">
         <v>0.86666666666666003</v>
       </c>
-      <c r="I105" s="15">
+      <c r="I120" s="15">
         <v>0.86666666666666003</v>
       </c>
-      <c r="J105" s="15">
+      <c r="J120" s="15">
         <v>0.4</v>
       </c>
-      <c r="K105" s="15">
+      <c r="K120" s="15">
         <v>0.4</v>
       </c>
-      <c r="L105" s="15">
+      <c r="L120" s="15">
         <v>0.4</v>
       </c>
-      <c r="M105" s="15">
+      <c r="M120" s="15">
         <v>0.2</v>
       </c>
-      <c r="N105" s="15">
+      <c r="N120" s="15">
         <v>0.2</v>
       </c>
-      <c r="O105" s="15">
+      <c r="O120" s="15">
         <v>0.2</v>
       </c>
-      <c r="P105" s="15">
+      <c r="P120" s="15">
         <v>0.2</v>
       </c>
-      <c r="Q105" s="15">
+      <c r="Q120" s="15">
         <v>0.2</v>
       </c>
-      <c r="R105" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="8" t="s">
+      <c r="R120" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B106" s="6">
-        <v>1</v>
-      </c>
-      <c r="C106" s="6">
-        <v>1</v>
-      </c>
-      <c r="D106" s="6">
-        <v>1</v>
-      </c>
-      <c r="E106" s="6">
-        <v>1</v>
-      </c>
-      <c r="F106" s="6">
-        <v>1</v>
-      </c>
-      <c r="G106" s="6">
-        <v>1</v>
-      </c>
-      <c r="H106" s="6">
-        <v>1</v>
-      </c>
-      <c r="I106" s="6">
-        <v>1</v>
-      </c>
-      <c r="J106" s="6">
-        <v>1</v>
-      </c>
-      <c r="K106" s="6">
-        <v>1</v>
-      </c>
-      <c r="L106" s="6">
-        <v>1</v>
-      </c>
-      <c r="M106" s="6">
-        <v>1</v>
-      </c>
-      <c r="N106" s="6">
-        <v>1</v>
-      </c>
-      <c r="O106" s="6">
-        <v>1</v>
-      </c>
-      <c r="P106" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q106" s="6">
-        <v>1</v>
-      </c>
-      <c r="R106" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="3" t="s">
+      <c r="B121" s="6">
+        <v>1</v>
+      </c>
+      <c r="C121" s="6">
+        <v>1</v>
+      </c>
+      <c r="D121" s="6">
+        <v>1</v>
+      </c>
+      <c r="E121" s="6">
+        <v>1</v>
+      </c>
+      <c r="F121" s="6">
+        <v>1</v>
+      </c>
+      <c r="G121" s="6">
+        <v>1</v>
+      </c>
+      <c r="H121" s="6">
+        <v>1</v>
+      </c>
+      <c r="I121" s="6">
+        <v>1</v>
+      </c>
+      <c r="J121" s="6">
+        <v>1</v>
+      </c>
+      <c r="K121" s="6">
+        <v>1</v>
+      </c>
+      <c r="L121" s="6">
+        <v>1</v>
+      </c>
+      <c r="M121" s="6">
+        <v>1</v>
+      </c>
+      <c r="N121" s="6">
+        <v>1</v>
+      </c>
+      <c r="O121" s="6">
+        <v>1</v>
+      </c>
+      <c r="P121" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q121" s="6">
+        <v>1</v>
+      </c>
+      <c r="R121" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B108" s="11"/>
-    </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A112" s="1" t="s">
+      <c r="B123" s="11"/>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A127" s="1" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2411,6 +2692,1091 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{790C49B8-3B14-4EAF-B724-8E52EEBD60DB}">
+  <dimension ref="A1:E129"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="36" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" style="10" customWidth="1"/>
+    <col min="3" max="16384" width="16.54296875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+    </row>
+    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="10"/>
+    </row>
+    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10"/>
+    </row>
+    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="10"/>
+    </row>
+    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="10"/>
+    </row>
+    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="10"/>
+    </row>
+    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="10"/>
+    </row>
+    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="10"/>
+    </row>
+    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10"/>
+    </row>
+    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="10"/>
+    </row>
+    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="10"/>
+    </row>
+    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="10"/>
+    </row>
+    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="10"/>
+    </row>
+    <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="10"/>
+    </row>
+    <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="10"/>
+    </row>
+    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="10"/>
+    </row>
+    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="10"/>
+    </row>
+    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="10"/>
+    </row>
+    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="10"/>
+    </row>
+    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="10"/>
+    </row>
+    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="10"/>
+    </row>
+    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="10"/>
+    </row>
+    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="10"/>
+    </row>
+    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="10"/>
+    </row>
+    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="10"/>
+    </row>
+    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="10"/>
+    </row>
+    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="10"/>
+    </row>
+    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="10"/>
+    </row>
+    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="10"/>
+    </row>
+    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="10"/>
+    </row>
+    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="10"/>
+    </row>
+    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="10"/>
+    </row>
+    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="10"/>
+    </row>
+    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="10"/>
+    </row>
+    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="10"/>
+    </row>
+    <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="10"/>
+    </row>
+    <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="10"/>
+    </row>
+    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="10"/>
+    </row>
+    <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="10"/>
+    </row>
+    <row r="41" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="5"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="2"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B49" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C52" s="2"/>
+    </row>
+    <row r="53" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" s="4"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C54" s="2"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" s="13">
+        <v>1000000000000</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" s="13">
+        <v>1000000000000</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="5"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="2"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" s="2"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B59" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="5"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B61" s="12">
+        <v>2015</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B62" s="12">
+        <v>1</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B63" s="12">
+        <v>1</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D63" s="2"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B64" s="12">
+        <v>1</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D64" s="2"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B65" s="12">
+        <v>2015</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D65" s="2"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B66" s="12">
+        <v>12</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B67" s="12">
+        <v>31</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B68" s="12">
+        <v>24</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="5"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B70" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="5"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B73" s="14">
+        <v>2.4911838084243729E-2</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B74" s="13">
+        <f>0.00000001</f>
+        <v>1E-8</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D74" s="2"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B75" s="13">
+        <v>0</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B76" s="13">
+        <v>0</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="5"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B79" s="14">
+        <v>2.0648572594225215E-2</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" s="13">
+        <v>1.0999999999999999E-8</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D80" s="2"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B81" s="13">
+        <v>0</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B82" s="13">
+        <v>0</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" s="5"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B84" s="14">
+        <v>1.1841887362491711E-2</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D84" s="16">
+        <v>2.7271220888813726E-2</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85" s="14">
+        <v>2.2590009128958689E-2</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D85" s="16">
+        <v>2.9679010772171249E-2</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B86" s="13">
+        <v>0</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B87" s="18">
+        <v>0.49</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" s="5"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B89" s="14">
+        <v>2.7271220888813726E-2</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D89" s="16">
+        <v>2.7271220888813726E-2</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B90" s="14">
+        <v>2.9679010772171249E-2</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D90" s="16">
+        <v>2.9679010772171249E-2</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B91" s="13">
+        <v>0</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B92" s="18">
+        <v>0.17</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" s="5"/>
+      <c r="B93" s="12"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B94" s="14">
+        <v>6.2433901191501419E-2</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B95" s="14">
+        <v>2.5158160216169324E-2</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D95" s="2"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B96" s="13">
+        <v>0</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B97" s="13">
+        <v>0</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" s="5"/>
+      <c r="B98" s="12"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99" s="12">
+        <f>261*0.08/8760</f>
+        <v>2.3835616438356165E-3</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B100" s="12">
+        <v>0</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D100" s="2"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B101" s="12">
+        <v>0</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D101" s="2"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B102" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+    </row>
+    <row r="103" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B103" s="12">
+        <f>1.01^(1/(24*365.24/12))-1</f>
+        <v>1.3621726294266168E-5</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B104" s="12">
+        <v>6</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105" s="5"/>
+      <c r="B105" s="12"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B106" s="12">
+        <v>2.7397260273972604E-6</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D106" s="12">
+        <f>0.3*0.08/8760</f>
+        <v>2.7397260273972604E-6</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B107" s="12">
+        <f>1100*0.08/8760</f>
+        <v>1.0045662100456621E-2</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B108" s="12">
+        <f>4600*0.08/8760</f>
+        <v>4.2009132420091327E-2</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B109" s="12">
+        <v>0</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D109" s="2"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B110" s="12">
+        <v>0</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D110" s="2"/>
+    </row>
+    <row r="111" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B111" s="12">
+        <v>1.1351367708023474E-6</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D111" s="12">
+        <f>1.01^(1/(24*365.24))-1</f>
+        <v>1.1351367708023474E-6</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B112" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113" s="5"/>
+      <c r="B113" s="12"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A114" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B114" s="12">
+        <v>10</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D114" s="2"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C115" s="10"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C116" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B117" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C117" s="4"/>
+    </row>
+    <row r="118" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B119" s="1"/>
+    </row>
+    <row r="120" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B120" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B121" s="6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B122" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B123" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B125" s="11"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A129" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{550DDC27-0C20-441D-A7BC-B4E9F459614A}">
   <dimension ref="A1:R112"/>
   <sheetViews>
@@ -3425,7 +4791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1CA55F3-71CF-4790-ABCB-757487BDCD56}">
   <dimension ref="A1:T120"/>
   <sheetViews>
@@ -4976,7 +6342,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC1A31D-6BD7-4871-811D-118FFE6482B3}">
   <dimension ref="A1:V114"/>
   <sheetViews>
@@ -6193,7 +7559,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7EB0C2-FE99-434C-ADBB-D79DBB252CC7}">
   <dimension ref="A1:T116"/>
   <sheetViews>
@@ -7474,7 +8840,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F36335C-F191-4ED6-89FF-CFA62346621A}">
   <dimension ref="A1:T116"/>
   <sheetViews>
@@ -8755,7 +10121,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{515BF5ED-661D-4D09-9F77-3E237FF024FA}">
   <dimension ref="A1:T116"/>
   <sheetViews>
@@ -10036,7 +11402,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D315A23C-713E-4F09-9EE7-90C0F3AF5059}">
   <dimension ref="A1:S112"/>
   <sheetViews>

--- a/case_input.xlsx
+++ b/case_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kcaldeira\Google Drive\git\SEM-1.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mengyao @ Carnegie\research\models\archived models\SEM-1.1-my181107\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8490E571-AF32-4A90-9097-ABD2F107115C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DEC71E3-07E4-4509-B478-084E1397838E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25550" windowHeight="14520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EIAbaseTest" sheetId="19" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="185">
   <si>
     <t>This file is documentation for the input data format for the case definition file, used as input for the Simple Energy Model v 1.0</t>
   </si>
@@ -575,16 +575,32 @@
   </si>
   <si>
     <t>test_price_co2</t>
+  </si>
+  <si>
+    <t>is default value</t>
+  </si>
+  <si>
+    <t>0.01% per year</t>
+  </si>
+  <si>
+    <t>is default value for flexible generation; for constant generation, add up fixed and variable costs</t>
+  </si>
+  <si>
+    <t>is default value for flexible generation; for constant generation, use small value such as 3e-8</t>
+  </si>
+  <si>
+    <t>assuming $261/kWh capital cost (Davis et al., 2018), 7% discount rate, 10-year lifetime (Lazard, 2017)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.00000E+00"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -1081,7 +1097,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1125,6 +1141,10 @@
     <xf numFmtId="166" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1482,204 +1502,204 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{528F748F-2438-463B-BA5E-87C8F32FAD91}">
   <dimension ref="A1:R127"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7265625" style="10" customWidth="1"/>
-    <col min="3" max="16384" width="16.54296875" style="1"/>
+    <col min="1" max="1" width="39.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="10" customWidth="1"/>
+    <col min="3" max="16384" width="12.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9"/>
     </row>
-    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="10"/>
     </row>
-    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="10"/>
     </row>
-    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
     </row>
-    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B5" s="10"/>
     </row>
-    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B6" s="10"/>
     </row>
-    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B7" s="10"/>
     </row>
-    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10"/>
     </row>
-    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="10"/>
     </row>
-    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="10"/>
     </row>
-    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="10"/>
     </row>
-    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="10"/>
     </row>
-    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B13" s="10"/>
     </row>
-    <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10"/>
     </row>
-    <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="10"/>
     </row>
-    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="10"/>
     </row>
-    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="10"/>
     </row>
-    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="10"/>
     </row>
-    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B19" s="10"/>
     </row>
-    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B20" s="10"/>
     </row>
-    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="10"/>
     </row>
-    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B22" s="10"/>
     </row>
-    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="10"/>
     </row>
-    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B24" s="10"/>
     </row>
-    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
     </row>
-    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B26" s="10"/>
     </row>
-    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="10"/>
     </row>
-    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B28" s="10"/>
     </row>
-    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="10"/>
     </row>
-    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B30" s="10"/>
     </row>
-    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="10"/>
     </row>
-    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="10"/>
     </row>
-    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="10"/>
     </row>
-    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B34" s="10"/>
     </row>
-    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B35" s="10"/>
     </row>
-    <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="10"/>
     </row>
-    <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B37" s="10"/>
     </row>
-    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="10"/>
     </row>
-    <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B39" s="10"/>
     </row>
-    <row r="41" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>17</v>
       </c>
@@ -1687,7 +1707,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>19</v>
       </c>
@@ -1698,7 +1718,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>28</v>
       </c>
@@ -1709,7 +1729,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>21</v>
       </c>
@@ -1720,12 +1740,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="12"/>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>24</v>
       </c>
@@ -1736,7 +1756,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>26</v>
       </c>
@@ -1747,7 +1767,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>146</v>
       </c>
@@ -1758,10 +1778,10 @@
         <v>147</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>30</v>
       </c>
@@ -1770,10 +1790,10 @@
       </c>
       <c r="C53" s="4"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>55</v>
       </c>
@@ -1784,7 +1804,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>56</v>
       </c>
@@ -1795,12 +1815,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="B57" s="12"/>
       <c r="C57" s="2"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>32</v>
       </c>
@@ -1809,7 +1829,7 @@
       </c>
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>71</v>
       </c>
@@ -1820,13 +1840,13 @@
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" s="12"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>33</v>
       </c>
@@ -1838,7 +1858,7 @@
       </c>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>34</v>
       </c>
@@ -1850,7 +1870,7 @@
       </c>
       <c r="D62" s="2"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>35</v>
       </c>
@@ -1862,7 +1882,7 @@
       </c>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>36</v>
       </c>
@@ -1874,7 +1894,7 @@
       </c>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>37</v>
       </c>
@@ -1886,7 +1906,7 @@
       </c>
       <c r="D65" s="2"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>38</v>
       </c>
@@ -1898,7 +1918,7 @@
       </c>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>39</v>
       </c>
@@ -1910,7 +1930,7 @@
       </c>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>40</v>
       </c>
@@ -1922,13 +1942,13 @@
       </c>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="B69" s="12"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>170</v>
       </c>
@@ -1940,13 +1960,13 @@
       </c>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
       <c r="B71" s="12"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>41</v>
       </c>
@@ -1956,21 +1976,24 @@
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B73" s="14">
-        <v>2.4911838084243729E-2</v>
+      <c r="B73" s="19">
+        <v>1.9528741509529837E-2</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D73" s="20">
+        <v>1.9528741509529837E-2</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>83</v>
       </c>
@@ -1983,7 +2006,7 @@
       </c>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>158</v>
       </c>
@@ -1997,7 +2020,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>157</v>
       </c>
@@ -2011,13 +2034,13 @@
         <v>161</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
       <c r="B77" s="12"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>43</v>
       </c>
@@ -2027,33 +2050,36 @@
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B79" s="14">
+      <c r="B79" s="19">
         <v>2.0648572594225215E-2</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D79" s="20">
+        <v>2.0648572594225215E-2</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B80" s="13">
-        <v>1.0999999999999999E-8</v>
+        <v>2E-8</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D80" s="2"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>162</v>
       </c>
@@ -2067,7 +2093,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>163</v>
       </c>
@@ -2081,47 +2107,47 @@
         <v>161</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
       <c r="B83" s="12"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B84" s="14">
+      <c r="B84" s="19">
         <v>1.1841887362491711E-2</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D84" s="16">
-        <v>2.7271220888813726E-2</v>
+      <c r="D84" s="20">
+        <v>1.1841887362491711E-2</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B85" s="14">
+      <c r="B85" s="19">
         <v>2.2590009128958689E-2</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D85" s="16">
-        <v>2.9679010772171249E-2</v>
+      <c r="D85" s="20">
+        <v>2.2590009128958689E-2</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>164</v>
       </c>
@@ -2135,7 +2161,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>165</v>
       </c>
@@ -2149,47 +2175,47 @@
         <v>172</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
       <c r="B88" s="12"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B89" s="14">
+      <c r="B89" s="19">
         <v>2.7271220888813726E-2</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D89" s="16">
+      <c r="D89" s="20">
         <v>2.7271220888813726E-2</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B90" s="14">
+      <c r="B90" s="19">
         <v>2.9679010772171249E-2</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D90" s="16">
+      <c r="D90" s="20">
         <v>2.9679010772171249E-2</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>166</v>
       </c>
@@ -2203,7 +2229,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>167</v>
       </c>
@@ -2217,39 +2243,47 @@
         <v>173</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="5"/>
       <c r="B93" s="12"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B94" s="14">
+      <c r="B94" s="19">
         <v>6.2433901191501419E-2</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D94" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D94" s="20">
+        <v>6.2433901191501419E-2</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B95" s="14">
+      <c r="B95" s="19">
         <v>2.5158160216169324E-2</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D95" s="2"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D95" s="20">
+        <v>2.5158160216169324E-2</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>168</v>
       </c>
@@ -2263,7 +2297,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>169</v>
       </c>
@@ -2277,28 +2311,27 @@
         <v>161</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="5"/>
       <c r="B98" s="12"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B99" s="12">
-        <f>261*0.08/8760</f>
-        <v>2.3835616438356165E-3</v>
+      <c r="B99" s="19">
+        <v>4.2392529406082022E-3</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>73</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>87</v>
       </c>
@@ -2310,7 +2343,7 @@
       </c>
       <c r="D100" s="2"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>88</v>
       </c>
@@ -2322,7 +2355,7 @@
       </c>
       <c r="D101" s="2"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>46</v>
       </c>
@@ -2332,11 +2365,11 @@
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
     </row>
-    <row r="103" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B103" s="12">
+      <c r="B103" s="19">
         <f>1.01^(1/(24*365.24/12))-1</f>
         <v>1.3621726294266168E-5</v>
       </c>
@@ -2344,11 +2377,11 @@
         <v>48</v>
       </c>
       <c r="D103" s="2"/>
-      <c r="E103" s="1" t="s">
+      <c r="E103" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>49</v>
       </c>
@@ -2362,17 +2395,17 @@
         <v>75</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="5"/>
       <c r="B105" s="12"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B106" s="12">
+      <c r="B106" s="19">
         <v>2.7397260273972604E-6</v>
       </c>
       <c r="C106" s="2" t="s">
@@ -2386,11 +2419,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B107" s="12">
+      <c r="B107" s="19">
         <f>1100*0.08/8760</f>
         <v>1.0045662100456621E-2</v>
       </c>
@@ -2401,11 +2434,11 @@
         <v>65</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B108" s="12">
+      <c r="B108" s="19">
         <f>4600*0.08/8760</f>
         <v>4.2009132420091327E-2</v>
       </c>
@@ -2416,7 +2449,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>89</v>
       </c>
@@ -2428,7 +2461,7 @@
       </c>
       <c r="D109" s="2"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>90</v>
       </c>
@@ -2440,25 +2473,26 @@
       </c>
       <c r="D110" s="2"/>
     </row>
-    <row r="111" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>106</v>
       </c>
       <c r="B111" s="12">
-        <v>1.1351367708023474E-6</v>
+        <f>D111</f>
+        <v>1.1407453648359933E-8</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D111" s="12">
-        <f>1.01^(1/(24*365.24))-1</f>
-        <v>1.1351367708023474E-6</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+        <f>1.0001^(1/(24*365.24))-1</f>
+        <v>1.1407453648359933E-8</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>64</v>
       </c>
@@ -2468,13 +2502,13 @@
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" s="5"/>
       <c r="B113" s="12"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>91</v>
       </c>
@@ -2486,15 +2520,15 @@
       </c>
       <c r="D114" s="2"/>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C115" s="10"/>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C116" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="117" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>51</v>
       </c>
@@ -2503,7 +2537,7 @@
       </c>
       <c r="C117" s="4"/>
     </row>
-    <row r="118" spans="1:18" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:18" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>52</v>
       </c>
@@ -2559,10 +2593,10 @@
         <v>91</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B119" s="1"/>
     </row>
-    <row r="120" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="15" t="s">
         <v>104</v>
       </c>
@@ -2618,7 +2652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
         <v>103</v>
       </c>
@@ -2674,13 +2708,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B123" s="11"/>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>54</v>
       </c>
@@ -2695,204 +2729,204 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{790C49B8-3B14-4EAF-B724-8E52EEBD60DB}">
   <dimension ref="A1:E129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1796875" style="10" customWidth="1"/>
-    <col min="3" max="16384" width="16.54296875" style="1"/>
+    <col min="2" max="2" width="17.140625" style="10" customWidth="1"/>
+    <col min="3" max="16384" width="16.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9"/>
     </row>
-    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="10"/>
     </row>
-    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="10"/>
     </row>
-    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
     </row>
-    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B5" s="10"/>
     </row>
-    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B6" s="10"/>
     </row>
-    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B7" s="10"/>
     </row>
-    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10"/>
     </row>
-    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="10"/>
     </row>
-    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="10"/>
     </row>
-    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="10"/>
     </row>
-    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="10"/>
     </row>
-    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B13" s="10"/>
     </row>
-    <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10"/>
     </row>
-    <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="10"/>
     </row>
-    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="10"/>
     </row>
-    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="10"/>
     </row>
-    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="10"/>
     </row>
-    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B19" s="10"/>
     </row>
-    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B20" s="10"/>
     </row>
-    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="10"/>
     </row>
-    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B22" s="10"/>
     </row>
-    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="10"/>
     </row>
-    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B24" s="10"/>
     </row>
-    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
     </row>
-    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B26" s="10"/>
     </row>
-    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="10"/>
     </row>
-    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B28" s="10"/>
     </row>
-    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="10"/>
     </row>
-    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B30" s="10"/>
     </row>
-    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="10"/>
     </row>
-    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="10"/>
     </row>
-    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="10"/>
     </row>
-    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B34" s="10"/>
     </row>
-    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B35" s="10"/>
     </row>
-    <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="10"/>
     </row>
-    <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B37" s="10"/>
     </row>
-    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="10"/>
     </row>
-    <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B39" s="10"/>
     </row>
-    <row r="41" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>17</v>
       </c>
@@ -2900,7 +2934,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>19</v>
       </c>
@@ -2911,7 +2945,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>28</v>
       </c>
@@ -2922,7 +2956,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>21</v>
       </c>
@@ -2933,12 +2967,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="12"/>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>24</v>
       </c>
@@ -2949,7 +2983,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>26</v>
       </c>
@@ -2960,7 +2994,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>146</v>
       </c>
@@ -2971,10 +3005,10 @@
         <v>147</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>30</v>
       </c>
@@ -2983,10 +3017,10 @@
       </c>
       <c r="C53" s="4"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>55</v>
       </c>
@@ -2997,7 +3031,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>56</v>
       </c>
@@ -3008,12 +3042,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="B57" s="12"/>
       <c r="C57" s="2"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>32</v>
       </c>
@@ -3022,7 +3056,7 @@
       </c>
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>71</v>
       </c>
@@ -3033,13 +3067,13 @@
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" s="12"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>33</v>
       </c>
@@ -3051,7 +3085,7 @@
       </c>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>34</v>
       </c>
@@ -3063,7 +3097,7 @@
       </c>
       <c r="D62" s="2"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>35</v>
       </c>
@@ -3075,7 +3109,7 @@
       </c>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>36</v>
       </c>
@@ -3087,7 +3121,7 @@
       </c>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>37</v>
       </c>
@@ -3099,7 +3133,7 @@
       </c>
       <c r="D65" s="2"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>38</v>
       </c>
@@ -3111,7 +3145,7 @@
       </c>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>39</v>
       </c>
@@ -3123,7 +3157,7 @@
       </c>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>40</v>
       </c>
@@ -3135,13 +3169,13 @@
       </c>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="B69" s="12"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>170</v>
       </c>
@@ -3153,13 +3187,13 @@
       </c>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
       <c r="B71" s="12"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>41</v>
       </c>
@@ -3169,21 +3203,24 @@
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B73" s="14">
-        <v>2.4911838084243729E-2</v>
+      <c r="B73" s="19">
+        <v>1.9528741509529837E-2</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D73" s="20">
+        <v>1.9528741509529837E-2</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>83</v>
       </c>
@@ -3196,7 +3233,7 @@
       </c>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>158</v>
       </c>
@@ -3210,7 +3247,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>157</v>
       </c>
@@ -3224,13 +3261,13 @@
         <v>161</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
       <c r="B77" s="12"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>43</v>
       </c>
@@ -3240,33 +3277,36 @@
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B79" s="14">
+      <c r="B79" s="19">
         <v>2.0648572594225215E-2</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D79" s="20">
+        <v>2.0648572594225215E-2</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B80" s="13">
-        <v>1.0999999999999999E-8</v>
+        <v>2E-8</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D80" s="2"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>162</v>
       </c>
@@ -3280,7 +3320,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>163</v>
       </c>
@@ -3294,47 +3334,47 @@
         <v>161</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
       <c r="B83" s="12"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B84" s="14">
+      <c r="B84" s="19">
         <v>1.1841887362491711E-2</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D84" s="16">
-        <v>2.7271220888813726E-2</v>
+      <c r="D84" s="20">
+        <v>1.1841887362491711E-2</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B85" s="14">
+      <c r="B85" s="19">
         <v>2.2590009128958689E-2</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D85" s="16">
-        <v>2.9679010772171249E-2</v>
+      <c r="D85" s="20">
+        <v>2.2590009128958689E-2</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>164</v>
       </c>
@@ -3348,7 +3388,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>165</v>
       </c>
@@ -3362,47 +3402,47 @@
         <v>172</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
       <c r="B88" s="12"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B89" s="14">
+      <c r="B89" s="19">
         <v>2.7271220888813726E-2</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D89" s="16">
+      <c r="D89" s="20">
         <v>2.7271220888813726E-2</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B90" s="14">
+      <c r="B90" s="19">
         <v>2.9679010772171249E-2</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D90" s="16">
+      <c r="D90" s="20">
         <v>2.9679010772171249E-2</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>166</v>
       </c>
@@ -3416,7 +3456,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>167</v>
       </c>
@@ -3430,39 +3470,47 @@
         <v>173</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="5"/>
       <c r="B93" s="12"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B94" s="14">
+      <c r="B94" s="19">
         <v>6.2433901191501419E-2</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D94" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D94" s="20">
+        <v>6.2433901191501419E-2</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B95" s="14">
+      <c r="B95" s="19">
         <v>2.5158160216169324E-2</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D95" s="2"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D95" s="20">
+        <v>2.5158160216169324E-2</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>168</v>
       </c>
@@ -3476,7 +3524,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>169</v>
       </c>
@@ -3490,28 +3538,27 @@
         <v>161</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="5"/>
       <c r="B98" s="12"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B99" s="12">
-        <f>261*0.08/8760</f>
-        <v>2.3835616438356165E-3</v>
+      <c r="B99" s="19">
+        <v>4.2392529406082022E-3</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>73</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>87</v>
       </c>
@@ -3523,7 +3570,7 @@
       </c>
       <c r="D100" s="2"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>88</v>
       </c>
@@ -3535,7 +3582,7 @@
       </c>
       <c r="D101" s="2"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>46</v>
       </c>
@@ -3545,7 +3592,7 @@
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
     </row>
-    <row r="103" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>47</v>
       </c>
@@ -3561,7 +3608,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>49</v>
       </c>
@@ -3575,17 +3622,17 @@
         <v>75</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="5"/>
       <c r="B105" s="12"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B106" s="12">
+      <c r="B106" s="19">
         <v>2.7397260273972604E-6</v>
       </c>
       <c r="C106" s="2" t="s">
@@ -3599,11 +3646,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B107" s="12">
+      <c r="B107" s="19">
         <f>1100*0.08/8760</f>
         <v>1.0045662100456621E-2</v>
       </c>
@@ -3614,11 +3661,11 @@
         <v>65</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B108" s="12">
+      <c r="B108" s="19">
         <f>4600*0.08/8760</f>
         <v>4.2009132420091327E-2</v>
       </c>
@@ -3629,7 +3676,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>89</v>
       </c>
@@ -3641,7 +3688,7 @@
       </c>
       <c r="D109" s="2"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>90</v>
       </c>
@@ -3653,25 +3700,26 @@
       </c>
       <c r="D110" s="2"/>
     </row>
-    <row r="111" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>106</v>
       </c>
       <c r="B111" s="12">
-        <v>1.1351367708023474E-6</v>
+        <f>D111</f>
+        <v>1.1407453648359933E-8</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D111" s="12">
-        <f>1.01^(1/(24*365.24))-1</f>
-        <v>1.1351367708023474E-6</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+        <f>1.0001^(1/(24*365.24))-1</f>
+        <v>1.1407453648359933E-8</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>64</v>
       </c>
@@ -3681,13 +3729,13 @@
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="5"/>
       <c r="B113" s="12"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>91</v>
       </c>
@@ -3699,15 +3747,15 @@
       </c>
       <c r="D114" s="2"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C115" s="10"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C116" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="117" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>51</v>
       </c>
@@ -3716,7 +3764,7 @@
       </c>
       <c r="C117" s="4"/>
     </row>
-    <row r="118" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>52</v>
       </c>
@@ -3724,10 +3772,10 @@
         <v>170</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B119" s="1"/>
     </row>
-    <row r="120" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="15" t="s">
         <v>175</v>
       </c>
@@ -3735,7 +3783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
         <v>176</v>
       </c>
@@ -3743,7 +3791,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="122" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
         <v>177</v>
       </c>
@@ -3751,7 +3799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
         <v>178</v>
       </c>
@@ -3759,13 +3807,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B125" s="11"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>54</v>
       </c>
@@ -3784,200 +3832,200 @@
       <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7265625" style="10" customWidth="1"/>
-    <col min="3" max="16384" width="16.54296875" style="1"/>
+    <col min="2" max="2" width="35.7109375" style="10" customWidth="1"/>
+    <col min="3" max="16384" width="16.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9"/>
     </row>
-    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="10"/>
     </row>
-    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="10"/>
     </row>
-    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
     </row>
-    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B5" s="10"/>
     </row>
-    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B6" s="10"/>
     </row>
-    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B7" s="10"/>
     </row>
-    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10"/>
     </row>
-    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="10"/>
     </row>
-    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="10"/>
     </row>
-    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="10"/>
     </row>
-    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="10"/>
     </row>
-    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B13" s="10"/>
     </row>
-    <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10"/>
     </row>
-    <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="10"/>
     </row>
-    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="10"/>
     </row>
-    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="10"/>
     </row>
-    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="10"/>
     </row>
-    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B19" s="10"/>
     </row>
-    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B20" s="10"/>
     </row>
-    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="10"/>
     </row>
-    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B22" s="10"/>
     </row>
-    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="10"/>
     </row>
-    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B24" s="10"/>
     </row>
-    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
     </row>
-    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B26" s="10"/>
     </row>
-    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="10"/>
     </row>
-    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B28" s="10"/>
     </row>
-    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="10"/>
     </row>
-    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B30" s="10"/>
     </row>
-    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="10"/>
     </row>
-    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="10"/>
     </row>
-    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="10"/>
     </row>
-    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B34" s="10"/>
     </row>
-    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B35" s="10"/>
     </row>
-    <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="10"/>
     </row>
-    <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B37" s="10"/>
     </row>
-    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="10"/>
     </row>
-    <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B39" s="10"/>
     </row>
-    <row r="41" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>17</v>
       </c>
@@ -3985,7 +4033,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>19</v>
       </c>
@@ -3996,7 +4044,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>28</v>
       </c>
@@ -4007,7 +4055,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>21</v>
       </c>
@@ -4018,12 +4066,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="12"/>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>24</v>
       </c>
@@ -4034,7 +4082,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>26</v>
       </c>
@@ -4045,7 +4093,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>146</v>
       </c>
@@ -4056,10 +4104,10 @@
         <v>147</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>30</v>
       </c>
@@ -4068,10 +4116,10 @@
       </c>
       <c r="C53" s="4"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>55</v>
       </c>
@@ -4082,7 +4130,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>56</v>
       </c>
@@ -4093,12 +4141,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="B57" s="12"/>
       <c r="C57" s="2"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>32</v>
       </c>
@@ -4107,7 +4155,7 @@
       </c>
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>71</v>
       </c>
@@ -4118,13 +4166,13 @@
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" s="12"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>33</v>
       </c>
@@ -4136,7 +4184,7 @@
       </c>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>34</v>
       </c>
@@ -4148,7 +4196,7 @@
       </c>
       <c r="D62" s="2"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>35</v>
       </c>
@@ -4160,7 +4208,7 @@
       </c>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>36</v>
       </c>
@@ -4172,7 +4220,7 @@
       </c>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>37</v>
       </c>
@@ -4184,7 +4232,7 @@
       </c>
       <c r="D65" s="2"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>38</v>
       </c>
@@ -4196,7 +4244,7 @@
       </c>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>39</v>
       </c>
@@ -4208,7 +4256,7 @@
       </c>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>40</v>
       </c>
@@ -4220,13 +4268,13 @@
       </c>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="B69" s="12"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>41</v>
       </c>
@@ -4236,7 +4284,7 @@
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>93</v>
       </c>
@@ -4250,7 +4298,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>83</v>
       </c>
@@ -4263,13 +4311,13 @@
       </c>
       <c r="D72" s="2"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
       <c r="B73" s="12"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>43</v>
       </c>
@@ -4279,7 +4327,7 @@
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>94</v>
       </c>
@@ -4293,7 +4341,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>84</v>
       </c>
@@ -4305,13 +4353,13 @@
       </c>
       <c r="D76" s="2"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
       <c r="B77" s="12"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>95</v>
       </c>
@@ -4328,7 +4376,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>85</v>
       </c>
@@ -4345,13 +4393,13 @@
         <v>102</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
       <c r="B80" s="12"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>96</v>
       </c>
@@ -4365,7 +4413,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>86</v>
       </c>
@@ -4377,13 +4425,13 @@
       </c>
       <c r="D82" s="2"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
       <c r="B83" s="12"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>97</v>
       </c>
@@ -4398,7 +4446,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>87</v>
       </c>
@@ -4410,7 +4458,7 @@
       </c>
       <c r="D85" s="2"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>88</v>
       </c>
@@ -4422,7 +4470,7 @@
       </c>
       <c r="D86" s="2"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>46</v>
       </c>
@@ -4432,7 +4480,7 @@
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
     </row>
-    <row r="88" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>47</v>
       </c>
@@ -4448,7 +4496,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>49</v>
       </c>
@@ -4462,13 +4510,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
       <c r="B90" s="12"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>98</v>
       </c>
@@ -4486,7 +4534,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>99</v>
       </c>
@@ -4501,7 +4549,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>100</v>
       </c>
@@ -4516,7 +4564,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>89</v>
       </c>
@@ -4528,7 +4576,7 @@
       </c>
       <c r="D94" s="2"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>90</v>
       </c>
@@ -4540,7 +4588,7 @@
       </c>
       <c r="D95" s="2"/>
     </row>
-    <row r="96" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>106</v>
       </c>
@@ -4558,7 +4606,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>64</v>
       </c>
@@ -4568,13 +4616,13 @@
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" s="5"/>
       <c r="B98" s="12"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>91</v>
       </c>
@@ -4586,15 +4634,15 @@
       </c>
       <c r="D99" s="2"/>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C100" s="10"/>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C101" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="102" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>51</v>
       </c>
@@ -4603,7 +4651,7 @@
       </c>
       <c r="C102" s="4"/>
     </row>
-    <row r="103" spans="1:18" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:18" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>52</v>
       </c>
@@ -4659,10 +4707,10 @@
         <v>91</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
     </row>
-    <row r="105" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="15" t="s">
         <v>104</v>
       </c>
@@ -4718,7 +4766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
         <v>103</v>
       </c>
@@ -4774,13 +4822,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B108" s="11"/>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>54</v>
       </c>
@@ -4799,200 +4847,200 @@
       <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7265625" style="10" customWidth="1"/>
-    <col min="3" max="16384" width="16.54296875" style="1"/>
+    <col min="2" max="2" width="35.7109375" style="10" customWidth="1"/>
+    <col min="3" max="16384" width="16.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9"/>
     </row>
-    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="10"/>
     </row>
-    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="10"/>
     </row>
-    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
     </row>
-    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B5" s="10"/>
     </row>
-    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B6" s="10"/>
     </row>
-    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B7" s="10"/>
     </row>
-    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10"/>
     </row>
-    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="10"/>
     </row>
-    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="10"/>
     </row>
-    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="10"/>
     </row>
-    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="10"/>
     </row>
-    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B13" s="10"/>
     </row>
-    <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10"/>
     </row>
-    <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="10"/>
     </row>
-    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="10"/>
     </row>
-    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="10"/>
     </row>
-    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="10"/>
     </row>
-    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B19" s="10"/>
     </row>
-    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B20" s="10"/>
     </row>
-    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="10"/>
     </row>
-    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B22" s="10"/>
     </row>
-    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="10"/>
     </row>
-    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B24" s="10"/>
     </row>
-    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
     </row>
-    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B26" s="10"/>
     </row>
-    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="10"/>
     </row>
-    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B28" s="10"/>
     </row>
-    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="10"/>
     </row>
-    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B30" s="10"/>
     </row>
-    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="10"/>
     </row>
-    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="10"/>
     </row>
-    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="10"/>
     </row>
-    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B34" s="10"/>
     </row>
-    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B35" s="10"/>
     </row>
-    <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="10"/>
     </row>
-    <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B37" s="10"/>
     </row>
-    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="10"/>
     </row>
-    <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B39" s="10"/>
     </row>
-    <row r="41" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>17</v>
       </c>
@@ -5000,7 +5048,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>19</v>
       </c>
@@ -5011,7 +5059,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>28</v>
       </c>
@@ -5022,7 +5070,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>21</v>
       </c>
@@ -5033,12 +5081,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="12"/>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>24</v>
       </c>
@@ -5049,7 +5097,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>26</v>
       </c>
@@ -5060,7 +5108,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>146</v>
       </c>
@@ -5071,10 +5119,10 @@
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>30</v>
       </c>
@@ -5083,10 +5131,10 @@
       </c>
       <c r="C53" s="4"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>55</v>
       </c>
@@ -5097,7 +5145,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>56</v>
       </c>
@@ -5108,12 +5156,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="B57" s="12"/>
       <c r="C57" s="2"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>32</v>
       </c>
@@ -5122,7 +5170,7 @@
       </c>
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>71</v>
       </c>
@@ -5133,13 +5181,13 @@
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" s="12"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>33</v>
       </c>
@@ -5151,7 +5199,7 @@
       </c>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>34</v>
       </c>
@@ -5163,7 +5211,7 @@
       </c>
       <c r="D62" s="2"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>35</v>
       </c>
@@ -5175,7 +5223,7 @@
       </c>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>36</v>
       </c>
@@ -5187,7 +5235,7 @@
       </c>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>37</v>
       </c>
@@ -5199,7 +5247,7 @@
       </c>
       <c r="D65" s="2"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>38</v>
       </c>
@@ -5211,7 +5259,7 @@
       </c>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>39</v>
       </c>
@@ -5223,7 +5271,7 @@
       </c>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>40</v>
       </c>
@@ -5235,13 +5283,13 @@
       </c>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="B69" s="12"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>41</v>
       </c>
@@ -5251,7 +5299,7 @@
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>93</v>
       </c>
@@ -5265,7 +5313,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>83</v>
       </c>
@@ -5278,13 +5326,13 @@
       </c>
       <c r="D72" s="2"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
       <c r="B73" s="12"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>43</v>
       </c>
@@ -5294,7 +5342,7 @@
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>94</v>
       </c>
@@ -5308,7 +5356,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>84</v>
       </c>
@@ -5320,13 +5368,13 @@
       </c>
       <c r="D76" s="2"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
       <c r="B77" s="12"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>95</v>
       </c>
@@ -5343,7 +5391,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>85</v>
       </c>
@@ -5360,13 +5408,13 @@
         <v>102</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
       <c r="B80" s="12"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>96</v>
       </c>
@@ -5380,7 +5428,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>86</v>
       </c>
@@ -5392,13 +5440,13 @@
       </c>
       <c r="D82" s="2"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
       <c r="B83" s="12"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>97</v>
       </c>
@@ -5413,7 +5461,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>87</v>
       </c>
@@ -5425,7 +5473,7 @@
       </c>
       <c r="D85" s="2"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>88</v>
       </c>
@@ -5437,7 +5485,7 @@
       </c>
       <c r="D86" s="2"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>46</v>
       </c>
@@ -5447,7 +5495,7 @@
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
     </row>
-    <row r="88" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>47</v>
       </c>
@@ -5463,7 +5511,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>49</v>
       </c>
@@ -5477,13 +5525,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
       <c r="B90" s="12"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>98</v>
       </c>
@@ -5501,7 +5549,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>99</v>
       </c>
@@ -5516,7 +5564,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>100</v>
       </c>
@@ -5531,7 +5579,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>89</v>
       </c>
@@ -5543,7 +5591,7 @@
       </c>
       <c r="D94" s="2"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>90</v>
       </c>
@@ -5555,7 +5603,7 @@
       </c>
       <c r="D95" s="2"/>
     </row>
-    <row r="96" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>106</v>
       </c>
@@ -5573,7 +5621,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>64</v>
       </c>
@@ -5583,13 +5631,13 @@
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="5"/>
       <c r="B98" s="12"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>91</v>
       </c>
@@ -5601,15 +5649,15 @@
       </c>
       <c r="D99" s="2"/>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C100" s="10"/>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C101" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="102" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>51</v>
       </c>
@@ -5618,7 +5666,7 @@
       </c>
       <c r="C102" s="4"/>
     </row>
-    <row r="103" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:20" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>52</v>
       </c>
@@ -5680,10 +5728,10 @@
         <v>91</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
     </row>
-    <row r="105" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="15" t="s">
         <v>136</v>
       </c>
@@ -5745,7 +5793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="15" t="s">
         <v>137</v>
       </c>
@@ -5807,7 +5855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="15" t="s">
         <v>138</v>
       </c>
@@ -5869,7 +5917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="15" t="s">
         <v>139</v>
       </c>
@@ -5931,7 +5979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="15" t="s">
         <v>140</v>
       </c>
@@ -5993,7 +6041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="15" t="s">
         <v>141</v>
       </c>
@@ -6055,7 +6103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="15" t="s">
         <v>142</v>
       </c>
@@ -6117,7 +6165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="15" t="s">
         <v>143</v>
       </c>
@@ -6179,7 +6227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="15" t="s">
         <v>144</v>
       </c>
@@ -6241,7 +6289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="15" t="s">
         <v>145</v>
       </c>
@@ -6303,17 +6351,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B115" s="1"/>
       <c r="D115" s="10"/>
     </row>
-    <row r="116" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D116" s="11"/>
     </row>
-    <row r="120" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>54</v>
       </c>
@@ -6350,200 +6398,200 @@
       <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7265625" style="10" customWidth="1"/>
-    <col min="3" max="16384" width="16.54296875" style="1"/>
+    <col min="2" max="2" width="35.7109375" style="10" customWidth="1"/>
+    <col min="3" max="16384" width="16.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9"/>
     </row>
-    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="10"/>
     </row>
-    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="10"/>
     </row>
-    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
     </row>
-    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B5" s="10"/>
     </row>
-    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B6" s="10"/>
     </row>
-    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B7" s="10"/>
     </row>
-    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10"/>
     </row>
-    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="10"/>
     </row>
-    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="10"/>
     </row>
-    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="10"/>
     </row>
-    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="10"/>
     </row>
-    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B13" s="10"/>
     </row>
-    <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10"/>
     </row>
-    <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="10"/>
     </row>
-    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="10"/>
     </row>
-    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="10"/>
     </row>
-    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="10"/>
     </row>
-    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B19" s="10"/>
     </row>
-    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B20" s="10"/>
     </row>
-    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="10"/>
     </row>
-    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B22" s="10"/>
     </row>
-    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="10"/>
     </row>
-    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B24" s="10"/>
     </row>
-    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
     </row>
-    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B26" s="10"/>
     </row>
-    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="10"/>
     </row>
-    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B28" s="10"/>
     </row>
-    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="10"/>
     </row>
-    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B30" s="10"/>
     </row>
-    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="10"/>
     </row>
-    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="10"/>
     </row>
-    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="10"/>
     </row>
-    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B34" s="10"/>
     </row>
-    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B35" s="10"/>
     </row>
-    <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="10"/>
     </row>
-    <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B37" s="10"/>
     </row>
-    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="10"/>
     </row>
-    <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B39" s="10"/>
     </row>
-    <row r="41" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>17</v>
       </c>
@@ -6551,7 +6599,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>19</v>
       </c>
@@ -6562,7 +6610,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>28</v>
       </c>
@@ -6573,7 +6621,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>21</v>
       </c>
@@ -6584,12 +6632,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="12"/>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>24</v>
       </c>
@@ -6600,7 +6648,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>26</v>
       </c>
@@ -6611,7 +6659,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>146</v>
       </c>
@@ -6622,10 +6670,10 @@
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>30</v>
       </c>
@@ -6634,10 +6682,10 @@
       </c>
       <c r="C53" s="4"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>55</v>
       </c>
@@ -6648,7 +6696,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>56</v>
       </c>
@@ -6659,12 +6707,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="B57" s="12"/>
       <c r="C57" s="2"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>32</v>
       </c>
@@ -6673,7 +6721,7 @@
       </c>
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>71</v>
       </c>
@@ -6684,13 +6732,13 @@
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" s="12"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>33</v>
       </c>
@@ -6702,7 +6750,7 @@
       </c>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>34</v>
       </c>
@@ -6714,7 +6762,7 @@
       </c>
       <c r="D62" s="2"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>35</v>
       </c>
@@ -6726,7 +6774,7 @@
       </c>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>36</v>
       </c>
@@ -6738,7 +6786,7 @@
       </c>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>37</v>
       </c>
@@ -6750,7 +6798,7 @@
       </c>
       <c r="D65" s="2"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>38</v>
       </c>
@@ -6762,7 +6810,7 @@
       </c>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>39</v>
       </c>
@@ -6774,7 +6822,7 @@
       </c>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>40</v>
       </c>
@@ -6786,13 +6834,13 @@
       </c>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="B69" s="12"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>41</v>
       </c>
@@ -6802,7 +6850,7 @@
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>93</v>
       </c>
@@ -6816,7 +6864,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>83</v>
       </c>
@@ -6829,13 +6877,13 @@
       </c>
       <c r="D72" s="2"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
       <c r="B73" s="12"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>43</v>
       </c>
@@ -6845,7 +6893,7 @@
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>94</v>
       </c>
@@ -6859,7 +6907,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>84</v>
       </c>
@@ -6871,13 +6919,13 @@
       </c>
       <c r="D76" s="2"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
       <c r="B77" s="12"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>95</v>
       </c>
@@ -6894,7 +6942,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>85</v>
       </c>
@@ -6911,13 +6959,13 @@
         <v>102</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
       <c r="B80" s="12"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>96</v>
       </c>
@@ -6931,7 +6979,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>86</v>
       </c>
@@ -6943,13 +6991,13 @@
       </c>
       <c r="D82" s="2"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
       <c r="B83" s="12"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>97</v>
       </c>
@@ -6964,7 +7012,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>87</v>
       </c>
@@ -6976,7 +7024,7 @@
       </c>
       <c r="D85" s="2"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>88</v>
       </c>
@@ -6988,7 +7036,7 @@
       </c>
       <c r="D86" s="2"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>46</v>
       </c>
@@ -6998,7 +7046,7 @@
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
     </row>
-    <row r="88" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>47</v>
       </c>
@@ -7014,7 +7062,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>49</v>
       </c>
@@ -7028,13 +7076,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
       <c r="B90" s="12"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>98</v>
       </c>
@@ -7052,7 +7100,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>99</v>
       </c>
@@ -7067,7 +7115,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>100</v>
       </c>
@@ -7082,7 +7130,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>89</v>
       </c>
@@ -7094,7 +7142,7 @@
       </c>
       <c r="D94" s="2"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>90</v>
       </c>
@@ -7106,7 +7154,7 @@
       </c>
       <c r="D95" s="2"/>
     </row>
-    <row r="96" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>106</v>
       </c>
@@ -7124,7 +7172,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>64</v>
       </c>
@@ -7134,13 +7182,13 @@
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A98" s="5"/>
       <c r="B98" s="12"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>91</v>
       </c>
@@ -7152,15 +7200,15 @@
       </c>
       <c r="D99" s="2"/>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C100" s="10"/>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C101" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="102" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>51</v>
       </c>
@@ -7169,7 +7217,7 @@
       </c>
       <c r="C102" s="4"/>
     </row>
-    <row r="103" spans="1:22" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:22" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>52</v>
       </c>
@@ -7237,10 +7285,10 @@
         <v>106</v>
       </c>
     </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
     </row>
-    <row r="105" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="15" t="s">
         <v>148</v>
       </c>
@@ -7310,7 +7358,7 @@
         <v>7.71854460834831E-6</v>
       </c>
     </row>
-    <row r="106" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="15" t="s">
         <v>149</v>
       </c>
@@ -7380,7 +7428,7 @@
         <v>3.3720809238246829E-6</v>
       </c>
     </row>
-    <row r="107" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="15" t="s">
         <v>150</v>
       </c>
@@ -7450,7 +7498,7 @@
         <v>1.1351367708023474E-6</v>
       </c>
     </row>
-    <row r="108" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="15" t="s">
         <v>151</v>
       </c>
@@ -7520,17 +7568,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
       <c r="D109" s="10"/>
     </row>
-    <row r="110" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D110" s="11"/>
     </row>
-    <row r="114" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>54</v>
       </c>
@@ -7567,200 +7615,200 @@
       <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7265625" style="10" customWidth="1"/>
-    <col min="3" max="16384" width="16.54296875" style="1"/>
+    <col min="2" max="2" width="35.7109375" style="10" customWidth="1"/>
+    <col min="3" max="16384" width="16.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9"/>
     </row>
-    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="10"/>
     </row>
-    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="10"/>
     </row>
-    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
     </row>
-    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B5" s="10"/>
     </row>
-    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B6" s="10"/>
     </row>
-    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B7" s="10"/>
     </row>
-    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10"/>
     </row>
-    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="10"/>
     </row>
-    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="10"/>
     </row>
-    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="10"/>
     </row>
-    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="10"/>
     </row>
-    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B13" s="10"/>
     </row>
-    <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10"/>
     </row>
-    <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="10"/>
     </row>
-    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="10"/>
     </row>
-    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="10"/>
     </row>
-    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="10"/>
     </row>
-    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B19" s="10"/>
     </row>
-    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B20" s="10"/>
     </row>
-    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="10"/>
     </row>
-    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B22" s="10"/>
     </row>
-    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="10"/>
     </row>
-    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B24" s="10"/>
     </row>
-    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
     </row>
-    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B26" s="10"/>
     </row>
-    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="10"/>
     </row>
-    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B28" s="10"/>
     </row>
-    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="10"/>
     </row>
-    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B30" s="10"/>
     </row>
-    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="10"/>
     </row>
-    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="10"/>
     </row>
-    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="10"/>
     </row>
-    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B34" s="10"/>
     </row>
-    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B35" s="10"/>
     </row>
-    <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="10"/>
     </row>
-    <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B37" s="10"/>
     </row>
-    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="10"/>
     </row>
-    <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B39" s="10"/>
     </row>
-    <row r="41" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>17</v>
       </c>
@@ -7768,7 +7816,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>19</v>
       </c>
@@ -7779,7 +7827,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>28</v>
       </c>
@@ -7790,7 +7838,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>21</v>
       </c>
@@ -7801,12 +7849,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="12"/>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>24</v>
       </c>
@@ -7817,7 +7865,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>26</v>
       </c>
@@ -7828,7 +7876,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>146</v>
       </c>
@@ -7839,10 +7887,10 @@
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>30</v>
       </c>
@@ -7851,10 +7899,10 @@
       </c>
       <c r="C53" s="4"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>55</v>
       </c>
@@ -7865,7 +7913,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>56</v>
       </c>
@@ -7876,12 +7924,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="B57" s="12"/>
       <c r="C57" s="2"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>32</v>
       </c>
@@ -7890,7 +7938,7 @@
       </c>
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>71</v>
       </c>
@@ -7901,13 +7949,13 @@
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" s="12"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>33</v>
       </c>
@@ -7919,7 +7967,7 @@
       </c>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>34</v>
       </c>
@@ -7931,7 +7979,7 @@
       </c>
       <c r="D62" s="2"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>35</v>
       </c>
@@ -7943,7 +7991,7 @@
       </c>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>36</v>
       </c>
@@ -7955,7 +8003,7 @@
       </c>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>37</v>
       </c>
@@ -7967,7 +8015,7 @@
       </c>
       <c r="D65" s="2"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>38</v>
       </c>
@@ -7979,7 +8027,7 @@
       </c>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>39</v>
       </c>
@@ -7991,7 +8039,7 @@
       </c>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>40</v>
       </c>
@@ -8003,13 +8051,13 @@
       </c>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="B69" s="12"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>41</v>
       </c>
@@ -8019,7 +8067,7 @@
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>93</v>
       </c>
@@ -8033,7 +8081,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>83</v>
       </c>
@@ -8046,13 +8094,13 @@
       </c>
       <c r="D72" s="2"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
       <c r="B73" s="12"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>43</v>
       </c>
@@ -8062,7 +8110,7 @@
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>94</v>
       </c>
@@ -8076,7 +8124,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>84</v>
       </c>
@@ -8088,13 +8136,13 @@
       </c>
       <c r="D76" s="2"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
       <c r="B77" s="12"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>95</v>
       </c>
@@ -8111,7 +8159,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>85</v>
       </c>
@@ -8128,13 +8176,13 @@
         <v>102</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
       <c r="B80" s="12"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>96</v>
       </c>
@@ -8148,7 +8196,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>86</v>
       </c>
@@ -8160,13 +8208,13 @@
       </c>
       <c r="D82" s="2"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
       <c r="B83" s="12"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>97</v>
       </c>
@@ -8181,7 +8229,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>87</v>
       </c>
@@ -8193,7 +8241,7 @@
       </c>
       <c r="D85" s="2"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>88</v>
       </c>
@@ -8205,7 +8253,7 @@
       </c>
       <c r="D86" s="2"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>46</v>
       </c>
@@ -8215,7 +8263,7 @@
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
     </row>
-    <row r="88" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>47</v>
       </c>
@@ -8231,7 +8279,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>49</v>
       </c>
@@ -8245,13 +8293,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
       <c r="B90" s="12"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>98</v>
       </c>
@@ -8269,7 +8317,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>99</v>
       </c>
@@ -8284,7 +8332,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>100</v>
       </c>
@@ -8299,7 +8347,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>89</v>
       </c>
@@ -8311,7 +8359,7 @@
       </c>
       <c r="D94" s="2"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>90</v>
       </c>
@@ -8323,7 +8371,7 @@
       </c>
       <c r="D95" s="2"/>
     </row>
-    <row r="96" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>106</v>
       </c>
@@ -8341,7 +8389,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>64</v>
       </c>
@@ -8351,13 +8399,13 @@
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="5"/>
       <c r="B98" s="12"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>91</v>
       </c>
@@ -8369,15 +8417,15 @@
       </c>
       <c r="D99" s="2"/>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C100" s="10"/>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C101" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="102" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>51</v>
       </c>
@@ -8386,7 +8434,7 @@
       </c>
       <c r="C102" s="4"/>
     </row>
-    <row r="103" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:20" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>52</v>
       </c>
@@ -8448,10 +8496,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
     </row>
-    <row r="105" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="15" t="s">
         <v>113</v>
       </c>
@@ -8513,7 +8561,7 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="106" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="15" t="s">
         <v>112</v>
       </c>
@@ -8575,7 +8623,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="107" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="15" t="s">
         <v>114</v>
       </c>
@@ -8637,7 +8685,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="108" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="15" t="s">
         <v>115</v>
       </c>
@@ -8699,7 +8747,7 @@
         <v>100000000000</v>
       </c>
     </row>
-    <row r="109" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="15" t="s">
         <v>116</v>
       </c>
@@ -8761,7 +8809,7 @@
         <v>1000000000000</v>
       </c>
     </row>
-    <row r="110" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="15" t="s">
         <v>117</v>
       </c>
@@ -8823,13 +8871,13 @@
         <v>10000000000000</v>
       </c>
     </row>
-    <row r="112" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B112" s="11"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>54</v>
       </c>
@@ -8848,200 +8896,200 @@
       <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7265625" style="10" customWidth="1"/>
-    <col min="3" max="16384" width="16.54296875" style="1"/>
+    <col min="2" max="2" width="35.7109375" style="10" customWidth="1"/>
+    <col min="3" max="16384" width="16.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9"/>
     </row>
-    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="10"/>
     </row>
-    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="10"/>
     </row>
-    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
     </row>
-    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B5" s="10"/>
     </row>
-    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B6" s="10"/>
     </row>
-    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B7" s="10"/>
     </row>
-    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10"/>
     </row>
-    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="10"/>
     </row>
-    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="10"/>
     </row>
-    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="10"/>
     </row>
-    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="10"/>
     </row>
-    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B13" s="10"/>
     </row>
-    <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10"/>
     </row>
-    <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="10"/>
     </row>
-    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="10"/>
     </row>
-    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="10"/>
     </row>
-    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="10"/>
     </row>
-    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B19" s="10"/>
     </row>
-    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B20" s="10"/>
     </row>
-    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="10"/>
     </row>
-    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B22" s="10"/>
     </row>
-    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="10"/>
     </row>
-    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B24" s="10"/>
     </row>
-    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
     </row>
-    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B26" s="10"/>
     </row>
-    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="10"/>
     </row>
-    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B28" s="10"/>
     </row>
-    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="10"/>
     </row>
-    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B30" s="10"/>
     </row>
-    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="10"/>
     </row>
-    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="10"/>
     </row>
-    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="10"/>
     </row>
-    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B34" s="10"/>
     </row>
-    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B35" s="10"/>
     </row>
-    <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="10"/>
     </row>
-    <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B37" s="10"/>
     </row>
-    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="10"/>
     </row>
-    <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B39" s="10"/>
     </row>
-    <row r="41" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>17</v>
       </c>
@@ -9049,7 +9097,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>19</v>
       </c>
@@ -9060,7 +9108,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>28</v>
       </c>
@@ -9071,7 +9119,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>21</v>
       </c>
@@ -9082,12 +9130,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="12"/>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>24</v>
       </c>
@@ -9098,7 +9146,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>26</v>
       </c>
@@ -9109,7 +9157,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>146</v>
       </c>
@@ -9120,10 +9168,10 @@
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>30</v>
       </c>
@@ -9132,10 +9180,10 @@
       </c>
       <c r="C53" s="4"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>55</v>
       </c>
@@ -9146,7 +9194,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>56</v>
       </c>
@@ -9157,12 +9205,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="B57" s="12"/>
       <c r="C57" s="2"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>32</v>
       </c>
@@ -9171,7 +9219,7 @@
       </c>
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>71</v>
       </c>
@@ -9182,13 +9230,13 @@
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" s="12"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>33</v>
       </c>
@@ -9200,7 +9248,7 @@
       </c>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>34</v>
       </c>
@@ -9212,7 +9260,7 @@
       </c>
       <c r="D62" s="2"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>35</v>
       </c>
@@ -9224,7 +9272,7 @@
       </c>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>36</v>
       </c>
@@ -9236,7 +9284,7 @@
       </c>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>37</v>
       </c>
@@ -9248,7 +9296,7 @@
       </c>
       <c r="D65" s="2"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>38</v>
       </c>
@@ -9260,7 +9308,7 @@
       </c>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>39</v>
       </c>
@@ -9272,7 +9320,7 @@
       </c>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>40</v>
       </c>
@@ -9284,13 +9332,13 @@
       </c>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="B69" s="12"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>41</v>
       </c>
@@ -9300,7 +9348,7 @@
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>93</v>
       </c>
@@ -9314,7 +9362,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>83</v>
       </c>
@@ -9327,13 +9375,13 @@
       </c>
       <c r="D72" s="2"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
       <c r="B73" s="12"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>43</v>
       </c>
@@ -9343,7 +9391,7 @@
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>94</v>
       </c>
@@ -9357,7 +9405,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>84</v>
       </c>
@@ -9369,13 +9417,13 @@
       </c>
       <c r="D76" s="2"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
       <c r="B77" s="12"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>95</v>
       </c>
@@ -9392,7 +9440,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>85</v>
       </c>
@@ -9409,13 +9457,13 @@
         <v>102</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
       <c r="B80" s="12"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>96</v>
       </c>
@@ -9429,7 +9477,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>86</v>
       </c>
@@ -9441,13 +9489,13 @@
       </c>
       <c r="D82" s="2"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
       <c r="B83" s="12"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>97</v>
       </c>
@@ -9462,7 +9510,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>87</v>
       </c>
@@ -9474,7 +9522,7 @@
       </c>
       <c r="D85" s="2"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>88</v>
       </c>
@@ -9486,7 +9534,7 @@
       </c>
       <c r="D86" s="2"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>46</v>
       </c>
@@ -9496,7 +9544,7 @@
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
     </row>
-    <row r="88" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>47</v>
       </c>
@@ -9512,7 +9560,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>49</v>
       </c>
@@ -9526,13 +9574,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
       <c r="B90" s="12"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>98</v>
       </c>
@@ -9550,7 +9598,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>99</v>
       </c>
@@ -9565,7 +9613,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>100</v>
       </c>
@@ -9580,7 +9628,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>89</v>
       </c>
@@ -9592,7 +9640,7 @@
       </c>
       <c r="D94" s="2"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>90</v>
       </c>
@@ -9604,7 +9652,7 @@
       </c>
       <c r="D95" s="2"/>
     </row>
-    <row r="96" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>106</v>
       </c>
@@ -9622,7 +9670,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>64</v>
       </c>
@@ -9632,13 +9680,13 @@
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="5"/>
       <c r="B98" s="12"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>91</v>
       </c>
@@ -9650,15 +9698,15 @@
       </c>
       <c r="D99" s="2"/>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C100" s="10"/>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C101" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="102" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>51</v>
       </c>
@@ -9667,7 +9715,7 @@
       </c>
       <c r="C102" s="4"/>
     </row>
-    <row r="103" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:20" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>52</v>
       </c>
@@ -9729,10 +9777,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
     </row>
-    <row r="105" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="15" t="s">
         <v>120</v>
       </c>
@@ -9794,7 +9842,7 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="106" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="15" t="s">
         <v>121</v>
       </c>
@@ -9856,7 +9904,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="107" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="15" t="s">
         <v>122</v>
       </c>
@@ -9918,7 +9966,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="108" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="15" t="s">
         <v>123</v>
       </c>
@@ -9980,7 +10028,7 @@
         <v>100000000000</v>
       </c>
     </row>
-    <row r="109" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="15" t="s">
         <v>124</v>
       </c>
@@ -10042,7 +10090,7 @@
         <v>1000000000000</v>
       </c>
     </row>
-    <row r="110" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="15" t="s">
         <v>125</v>
       </c>
@@ -10104,13 +10152,13 @@
         <v>10000000000000</v>
       </c>
     </row>
-    <row r="112" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B112" s="11"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>54</v>
       </c>
@@ -10129,200 +10177,200 @@
       <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7265625" style="10" customWidth="1"/>
-    <col min="3" max="16384" width="16.54296875" style="1"/>
+    <col min="2" max="2" width="35.7109375" style="10" customWidth="1"/>
+    <col min="3" max="16384" width="16.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9"/>
     </row>
-    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="10"/>
     </row>
-    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="10"/>
     </row>
-    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
     </row>
-    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B5" s="10"/>
     </row>
-    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B6" s="10"/>
     </row>
-    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B7" s="10"/>
     </row>
-    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10"/>
     </row>
-    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="10"/>
     </row>
-    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="10"/>
     </row>
-    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="10"/>
     </row>
-    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="10"/>
     </row>
-    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B13" s="10"/>
     </row>
-    <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10"/>
     </row>
-    <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="10"/>
     </row>
-    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="10"/>
     </row>
-    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="10"/>
     </row>
-    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="10"/>
     </row>
-    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B19" s="10"/>
     </row>
-    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B20" s="10"/>
     </row>
-    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="10"/>
     </row>
-    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B22" s="10"/>
     </row>
-    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="10"/>
     </row>
-    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B24" s="10"/>
     </row>
-    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
     </row>
-    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B26" s="10"/>
     </row>
-    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="10"/>
     </row>
-    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B28" s="10"/>
     </row>
-    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="10"/>
     </row>
-    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B30" s="10"/>
     </row>
-    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="10"/>
     </row>
-    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="10"/>
     </row>
-    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="10"/>
     </row>
-    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B34" s="10"/>
     </row>
-    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B35" s="10"/>
     </row>
-    <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="10"/>
     </row>
-    <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B37" s="10"/>
     </row>
-    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="10"/>
     </row>
-    <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B39" s="10"/>
     </row>
-    <row r="41" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>17</v>
       </c>
@@ -10330,7 +10378,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>19</v>
       </c>
@@ -10341,7 +10389,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>28</v>
       </c>
@@ -10352,7 +10400,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>21</v>
       </c>
@@ -10363,12 +10411,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="12"/>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>24</v>
       </c>
@@ -10379,7 +10427,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>26</v>
       </c>
@@ -10390,7 +10438,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>146</v>
       </c>
@@ -10401,10 +10449,10 @@
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>30</v>
       </c>
@@ -10413,10 +10461,10 @@
       </c>
       <c r="C53" s="4"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>55</v>
       </c>
@@ -10427,7 +10475,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>56</v>
       </c>
@@ -10438,12 +10486,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="B57" s="12"/>
       <c r="C57" s="2"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>32</v>
       </c>
@@ -10452,7 +10500,7 @@
       </c>
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>71</v>
       </c>
@@ -10463,13 +10511,13 @@
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" s="12"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>33</v>
       </c>
@@ -10481,7 +10529,7 @@
       </c>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>34</v>
       </c>
@@ -10493,7 +10541,7 @@
       </c>
       <c r="D62" s="2"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>35</v>
       </c>
@@ -10505,7 +10553,7 @@
       </c>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>36</v>
       </c>
@@ -10517,7 +10565,7 @@
       </c>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>37</v>
       </c>
@@ -10529,7 +10577,7 @@
       </c>
       <c r="D65" s="2"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>38</v>
       </c>
@@ -10541,7 +10589,7 @@
       </c>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>39</v>
       </c>
@@ -10553,7 +10601,7 @@
       </c>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>40</v>
       </c>
@@ -10565,13 +10613,13 @@
       </c>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="B69" s="12"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>41</v>
       </c>
@@ -10581,7 +10629,7 @@
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>93</v>
       </c>
@@ -10595,7 +10643,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>83</v>
       </c>
@@ -10608,13 +10656,13 @@
       </c>
       <c r="D72" s="2"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
       <c r="B73" s="12"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>43</v>
       </c>
@@ -10624,7 +10672,7 @@
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>94</v>
       </c>
@@ -10638,7 +10686,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>84</v>
       </c>
@@ -10650,13 +10698,13 @@
       </c>
       <c r="D76" s="2"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
       <c r="B77" s="12"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>95</v>
       </c>
@@ -10673,7 +10721,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>85</v>
       </c>
@@ -10690,13 +10738,13 @@
         <v>102</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
       <c r="B80" s="12"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>96</v>
       </c>
@@ -10710,7 +10758,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>86</v>
       </c>
@@ -10722,13 +10770,13 @@
       </c>
       <c r="D82" s="2"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
       <c r="B83" s="12"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>97</v>
       </c>
@@ -10743,7 +10791,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>87</v>
       </c>
@@ -10755,7 +10803,7 @@
       </c>
       <c r="D85" s="2"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>88</v>
       </c>
@@ -10767,7 +10815,7 @@
       </c>
       <c r="D86" s="2"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>46</v>
       </c>
@@ -10777,7 +10825,7 @@
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
     </row>
-    <row r="88" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>47</v>
       </c>
@@ -10793,7 +10841,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>49</v>
       </c>
@@ -10807,13 +10855,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
       <c r="B90" s="12"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>98</v>
       </c>
@@ -10831,7 +10879,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>99</v>
       </c>
@@ -10846,7 +10894,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>100</v>
       </c>
@@ -10861,7 +10909,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>89</v>
       </c>
@@ -10873,7 +10921,7 @@
       </c>
       <c r="D94" s="2"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>90</v>
       </c>
@@ -10885,7 +10933,7 @@
       </c>
       <c r="D95" s="2"/>
     </row>
-    <row r="96" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>106</v>
       </c>
@@ -10903,7 +10951,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>64</v>
       </c>
@@ -10913,13 +10961,13 @@
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="5"/>
       <c r="B98" s="12"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>91</v>
       </c>
@@ -10931,15 +10979,15 @@
       </c>
       <c r="D99" s="2"/>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C100" s="10"/>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C101" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="102" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>51</v>
       </c>
@@ -10948,7 +10996,7 @@
       </c>
       <c r="C102" s="4"/>
     </row>
-    <row r="103" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:20" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>52</v>
       </c>
@@ -11010,10 +11058,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
     </row>
-    <row r="105" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="15" t="s">
         <v>127</v>
       </c>
@@ -11075,7 +11123,7 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="106" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="15" t="s">
         <v>128</v>
       </c>
@@ -11137,7 +11185,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="107" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="15" t="s">
         <v>129</v>
       </c>
@@ -11199,7 +11247,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="108" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="15" t="s">
         <v>130</v>
       </c>
@@ -11261,7 +11309,7 @@
         <v>100000000000</v>
       </c>
     </row>
-    <row r="109" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="15" t="s">
         <v>131</v>
       </c>
@@ -11323,7 +11371,7 @@
         <v>1000000000000</v>
       </c>
     </row>
-    <row r="110" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="15" t="s">
         <v>132</v>
       </c>
@@ -11385,13 +11433,13 @@
         <v>10000000000000</v>
       </c>
     </row>
-    <row r="112" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B112" s="11"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>54</v>
       </c>
@@ -11410,200 +11458,200 @@
       <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7265625" style="10" customWidth="1"/>
-    <col min="3" max="16384" width="16.54296875" style="1"/>
+    <col min="2" max="2" width="35.7109375" style="10" customWidth="1"/>
+    <col min="3" max="16384" width="16.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9"/>
     </row>
-    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="10"/>
     </row>
-    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="10"/>
     </row>
-    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
     </row>
-    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B5" s="10"/>
     </row>
-    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B6" s="10"/>
     </row>
-    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B7" s="10"/>
     </row>
-    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10"/>
     </row>
-    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="10"/>
     </row>
-    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="10"/>
     </row>
-    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="10"/>
     </row>
-    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="10"/>
     </row>
-    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B13" s="10"/>
     </row>
-    <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10"/>
     </row>
-    <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="10"/>
     </row>
-    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="10"/>
     </row>
-    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="10"/>
     </row>
-    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="10"/>
     </row>
-    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B19" s="10"/>
     </row>
-    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B20" s="10"/>
     </row>
-    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="10"/>
     </row>
-    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B22" s="10"/>
     </row>
-    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="10"/>
     </row>
-    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B24" s="10"/>
     </row>
-    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
     </row>
-    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B26" s="10"/>
     </row>
-    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="10"/>
     </row>
-    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B28" s="10"/>
     </row>
-    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="10"/>
     </row>
-    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B30" s="10"/>
     </row>
-    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="10"/>
     </row>
-    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="10"/>
     </row>
-    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="10"/>
     </row>
-    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B34" s="10"/>
     </row>
-    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B35" s="10"/>
     </row>
-    <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="10"/>
     </row>
-    <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B37" s="10"/>
     </row>
-    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="10"/>
     </row>
-    <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B39" s="10"/>
     </row>
-    <row r="41" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>17</v>
       </c>
@@ -11611,7 +11659,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>19</v>
       </c>
@@ -11622,7 +11670,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>28</v>
       </c>
@@ -11633,7 +11681,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>21</v>
       </c>
@@ -11644,12 +11692,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="12"/>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>24</v>
       </c>
@@ -11660,7 +11708,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>26</v>
       </c>
@@ -11671,7 +11719,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>146</v>
       </c>
@@ -11682,10 +11730,10 @@
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>30</v>
       </c>
@@ -11694,10 +11742,10 @@
       </c>
       <c r="C53" s="4"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>55</v>
       </c>
@@ -11708,7 +11756,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>56</v>
       </c>
@@ -11719,12 +11767,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="B57" s="12"/>
       <c r="C57" s="2"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>32</v>
       </c>
@@ -11733,7 +11781,7 @@
       </c>
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>71</v>
       </c>
@@ -11744,13 +11792,13 @@
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" s="12"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>33</v>
       </c>
@@ -11762,7 +11810,7 @@
       </c>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>34</v>
       </c>
@@ -11774,7 +11822,7 @@
       </c>
       <c r="D62" s="2"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>35</v>
       </c>
@@ -11786,7 +11834,7 @@
       </c>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>36</v>
       </c>
@@ -11798,7 +11846,7 @@
       </c>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>37</v>
       </c>
@@ -11810,7 +11858,7 @@
       </c>
       <c r="D65" s="2"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>38</v>
       </c>
@@ -11822,7 +11870,7 @@
       </c>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>39</v>
       </c>
@@ -11834,7 +11882,7 @@
       </c>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>40</v>
       </c>
@@ -11846,13 +11894,13 @@
       </c>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="B69" s="12"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>41</v>
       </c>
@@ -11862,7 +11910,7 @@
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>93</v>
       </c>
@@ -11876,7 +11924,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>83</v>
       </c>
@@ -11889,13 +11937,13 @@
       </c>
       <c r="D72" s="2"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
       <c r="B73" s="12"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>43</v>
       </c>
@@ -11905,7 +11953,7 @@
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>94</v>
       </c>
@@ -11919,7 +11967,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>84</v>
       </c>
@@ -11931,13 +11979,13 @@
       </c>
       <c r="D76" s="2"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
       <c r="B77" s="12"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>95</v>
       </c>
@@ -11954,7 +12002,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>85</v>
       </c>
@@ -11971,13 +12019,13 @@
         <v>102</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
       <c r="B80" s="12"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>96</v>
       </c>
@@ -11991,7 +12039,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>86</v>
       </c>
@@ -12003,13 +12051,13 @@
       </c>
       <c r="D82" s="2"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
       <c r="B83" s="12"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>97</v>
       </c>
@@ -12024,7 +12072,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>87</v>
       </c>
@@ -12036,7 +12084,7 @@
       </c>
       <c r="D85" s="2"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>88</v>
       </c>
@@ -12048,7 +12096,7 @@
       </c>
       <c r="D86" s="2"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>46</v>
       </c>
@@ -12058,7 +12106,7 @@
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
     </row>
-    <row r="88" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>47</v>
       </c>
@@ -12074,7 +12122,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>49</v>
       </c>
@@ -12088,13 +12136,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
       <c r="B90" s="12"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>98</v>
       </c>
@@ -12112,7 +12160,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>99</v>
       </c>
@@ -12127,7 +12175,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>100</v>
       </c>
@@ -12142,7 +12190,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>89</v>
       </c>
@@ -12154,7 +12202,7 @@
       </c>
       <c r="D94" s="2"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>90</v>
       </c>
@@ -12166,7 +12214,7 @@
       </c>
       <c r="D95" s="2"/>
     </row>
-    <row r="96" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>106</v>
       </c>
@@ -12184,7 +12232,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>64</v>
       </c>
@@ -12194,13 +12242,13 @@
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="5"/>
       <c r="B98" s="12"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>91</v>
       </c>
@@ -12212,12 +12260,12 @@
       </c>
       <c r="D99" s="2"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C100" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="101" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>51</v>
       </c>
@@ -12226,7 +12274,7 @@
       </c>
       <c r="C101" s="4"/>
     </row>
-    <row r="102" spans="1:19" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:19" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>52</v>
       </c>
@@ -12285,10 +12333,10 @@
         <v>106</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
     </row>
-    <row r="104" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="15" t="s">
         <v>108</v>
       </c>
@@ -12348,7 +12396,7 @@
         <v>7.9077522813664203E-5</v>
       </c>
     </row>
-    <row r="105" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="15" t="s">
         <v>109</v>
       </c>
@@ -12408,7 +12456,7 @@
         <v>1.0873067248118318E-5</v>
       </c>
     </row>
-    <row r="106" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="15" t="s">
         <v>110</v>
       </c>
@@ -12468,16 +12516,16 @@
         <v>1.1351367708023474E-6</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
     </row>
-    <row r="108" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B108" s="11"/>
     </row>
-    <row r="110" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
         <v>103</v>
       </c>
@@ -12533,7 +12581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>54</v>
       </c>

--- a/case_input.xlsx
+++ b/case_input.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kcaldeira\Google Drive\git\SEM-1.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543AA58A-39F2-43E7-8028-BBFF3DCD26B7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B6D227-26A2-4E73-B8F9-D9E2CAF6D35F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-21720" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Base spec some (2)" sheetId="30" r:id="rId1"/>
-    <sheet name="Base spec some" sheetId="29" r:id="rId2"/>
-    <sheet name="Base spec all" sheetId="28" r:id="rId3"/>
-    <sheet name="EIAbaseTest" sheetId="19" r:id="rId4"/>
-    <sheet name="carbon_cost_test" sheetId="27" r:id="rId5"/>
-    <sheet name="EIAbaseTestMonth" sheetId="26" r:id="rId6"/>
-    <sheet name="testyears" sheetId="23" r:id="rId7"/>
-    <sheet name="test_decay" sheetId="25" r:id="rId8"/>
-    <sheet name="testScaling" sheetId="20" r:id="rId9"/>
-    <sheet name="baseScaling" sheetId="21" r:id="rId10"/>
-    <sheet name="nukeStorScaling" sheetId="22" r:id="rId11"/>
-    <sheet name="PGP storage decay test" sheetId="18" r:id="rId12"/>
+    <sheet name="SolarWindStorage" sheetId="31" r:id="rId1"/>
+    <sheet name="SolarWindStorageTest" sheetId="30" r:id="rId2"/>
+    <sheet name="Base spec some" sheetId="29" r:id="rId3"/>
+    <sheet name="Base spec all" sheetId="28" r:id="rId4"/>
+    <sheet name="EIAbaseTest" sheetId="19" r:id="rId5"/>
+    <sheet name="carbon_cost_test" sheetId="27" r:id="rId6"/>
+    <sheet name="EIAbaseTestMonth" sheetId="26" r:id="rId7"/>
+    <sheet name="testyears" sheetId="23" r:id="rId8"/>
+    <sheet name="test_decay" sheetId="25" r:id="rId9"/>
+    <sheet name="testScaling" sheetId="20" r:id="rId10"/>
+    <sheet name="baseScaling" sheetId="21" r:id="rId11"/>
+    <sheet name="nukeStorScaling" sheetId="22" r:id="rId12"/>
+    <sheet name="PGP storage decay test" sheetId="18" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2246" uniqueCount="243">
   <si>
     <t>This file is documentation for the input data format for the case definition file, used as input for the Simple Energy Model v 1.0</t>
   </si>
@@ -654,6 +655,120 @@
   </si>
   <si>
     <t>specified_capacity</t>
+  </si>
+  <si>
+    <t>SolarWindStorageTest</t>
+  </si>
+  <si>
+    <t>y1980</t>
+  </si>
+  <si>
+    <t>y1981</t>
+  </si>
+  <si>
+    <t>y1982</t>
+  </si>
+  <si>
+    <t>y1983</t>
+  </si>
+  <si>
+    <t>y1984</t>
+  </si>
+  <si>
+    <t>y1985</t>
+  </si>
+  <si>
+    <t>y1986</t>
+  </si>
+  <si>
+    <t>y1987</t>
+  </si>
+  <si>
+    <t>y1988</t>
+  </si>
+  <si>
+    <t>y1989</t>
+  </si>
+  <si>
+    <t>y1990</t>
+  </si>
+  <si>
+    <t>y1991</t>
+  </si>
+  <si>
+    <t>y1992</t>
+  </si>
+  <si>
+    <t>y1993</t>
+  </si>
+  <si>
+    <t>y1994</t>
+  </si>
+  <si>
+    <t>y1995</t>
+  </si>
+  <si>
+    <t>y1996</t>
+  </si>
+  <si>
+    <t>y1997</t>
+  </si>
+  <si>
+    <t>y1998</t>
+  </si>
+  <si>
+    <t>y1999</t>
+  </si>
+  <si>
+    <t>y2000</t>
+  </si>
+  <si>
+    <t>y2001</t>
+  </si>
+  <si>
+    <t>y2002</t>
+  </si>
+  <si>
+    <t>y2003</t>
+  </si>
+  <si>
+    <t>y2004</t>
+  </si>
+  <si>
+    <t>y2005</t>
+  </si>
+  <si>
+    <t>y2006</t>
+  </si>
+  <si>
+    <t>y2007</t>
+  </si>
+  <si>
+    <t>y2008</t>
+  </si>
+  <si>
+    <t>y2009</t>
+  </si>
+  <si>
+    <t>y2010</t>
+  </si>
+  <si>
+    <t>y2011</t>
+  </si>
+  <si>
+    <t>y2012</t>
+  </si>
+  <si>
+    <t>y2013</t>
+  </si>
+  <si>
+    <t>y2014</t>
+  </si>
+  <si>
+    <t>y2015</t>
+  </si>
+  <si>
+    <t>WindSolarStorage</t>
   </si>
 </sst>
 </file>
@@ -1563,11 +1678,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85893841-9BFD-46C3-B477-16FF2E2A896D}">
-  <dimension ref="A1:J127"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA78C4EC-C006-4DFA-B3FB-4B420F8095E8}">
+  <dimension ref="A1:AG121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="G135" sqref="G135"/>
+    <sheetView topLeftCell="F109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V118" sqref="V118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1776,7 +1891,7 @@
         <v>19</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>20</v>
@@ -2566,13 +2681,13 @@
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A113" s="5"/>
       <c r="B113" s="12"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A114" s="5" t="s">
         <v>91</v>
       </c>
@@ -2584,15 +2699,15 @@
       </c>
       <c r="D114" s="2"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:33" x14ac:dyDescent="0.35">
       <c r="C115" s="10"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:33" x14ac:dyDescent="0.35">
       <c r="C116" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="117" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
         <v>51</v>
       </c>
@@ -2601,53 +2716,113 @@
       </c>
       <c r="C117" s="4"/>
     </row>
-    <row r="118" spans="1:10" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:33" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B118" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E118" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C118" s="5" t="s">
+      <c r="F118" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="D118" s="5" t="s">
+      <c r="G118" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="E118" s="5" t="s">
+      <c r="H118" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="F118" s="5" t="s">
+      <c r="I118" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="G118" s="5" t="s">
+      <c r="J118" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="H118" s="5" t="s">
+      <c r="K118" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="I118" s="5" t="s">
+      <c r="L118" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="J118" s="5" t="s">
+      <c r="M118" s="5" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="O118" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="P118" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q118" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="R118" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="S118" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="T118" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="U118" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="V118" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="W118" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="X118" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y118" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z118" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA118" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB118" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC118" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD118" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE118" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF118" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG118" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="119" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B119" s="1"/>
     </row>
-    <row r="120" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:33" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A120" s="15" t="s">
-        <v>190</v>
+        <v>242</v>
       </c>
       <c r="B120" s="15">
-        <v>-1</v>
+        <v>2015</v>
       </c>
       <c r="C120" s="15">
-        <v>-1</v>
-      </c>
-      <c r="D120" s="15">
-        <v>-1</v>
+        <v>2015</v>
       </c>
       <c r="E120" s="15">
         <v>-1</v>
@@ -2667,57 +2842,77 @@
       <c r="J120" s="15">
         <v>-1</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="B121" s="15">
-        <v>1.5874435772826401</v>
-      </c>
-      <c r="C121" s="15">
-        <v>-1</v>
-      </c>
-      <c r="D121" s="15">
-        <v>-1</v>
-      </c>
-      <c r="E121" s="15">
-        <v>-1</v>
-      </c>
-      <c r="F121" s="15">
-        <v>-1</v>
-      </c>
-      <c r="G121" s="15">
-        <v>-1</v>
-      </c>
-      <c r="H121" s="15">
-        <v>-1</v>
-      </c>
-      <c r="I121" s="15">
-        <v>-1</v>
-      </c>
-      <c r="J121" s="15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="3" t="s">
+      <c r="K120" s="15">
+        <v>-1</v>
+      </c>
+      <c r="L120" s="15">
+        <v>-1</v>
+      </c>
+      <c r="M120" s="15">
+        <v>-1</v>
+      </c>
+      <c r="O120" s="15">
+        <v>1</v>
+      </c>
+      <c r="P120" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q120" s="15">
+        <v>1</v>
+      </c>
+      <c r="R120" s="15">
+        <v>1</v>
+      </c>
+      <c r="S120" s="15">
+        <v>-1</v>
+      </c>
+      <c r="T120" s="15">
+        <v>-1</v>
+      </c>
+      <c r="U120" s="15">
+        <v>-1</v>
+      </c>
+      <c r="V120" s="15">
+        <v>-1</v>
+      </c>
+      <c r="W120" s="15">
+        <v>-1</v>
+      </c>
+      <c r="X120" s="15">
+        <v>-1</v>
+      </c>
+      <c r="Y120" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z120" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA120" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB120" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AC120" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AD120" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AE120" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AF120" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AG120" s="15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A121" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B123" s="11"/>
-    </row>
-    <row r="127" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="1"/>
-      <c r="F127" s="1"/>
-      <c r="G127" s="1"/>
-      <c r="H127" s="1"/>
-      <c r="I127" s="1"/>
-      <c r="J127" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2726,6 +2921,1287 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7EB0C2-FE99-434C-ADBB-D79DBB252CC7}">
+  <dimension ref="A1:T116"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="36" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7265625" style="10" customWidth="1"/>
+    <col min="3" max="16384" width="16.54296875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+    </row>
+    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="10"/>
+    </row>
+    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10"/>
+    </row>
+    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="10"/>
+    </row>
+    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="10"/>
+    </row>
+    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="10"/>
+    </row>
+    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="10"/>
+    </row>
+    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="10"/>
+    </row>
+    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10"/>
+    </row>
+    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="10"/>
+    </row>
+    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="10"/>
+    </row>
+    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="10"/>
+    </row>
+    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="10"/>
+    </row>
+    <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="10"/>
+    </row>
+    <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="10"/>
+    </row>
+    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="10"/>
+    </row>
+    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="10"/>
+    </row>
+    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="10"/>
+    </row>
+    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="10"/>
+    </row>
+    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="10"/>
+    </row>
+    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="10"/>
+    </row>
+    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="10"/>
+    </row>
+    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="10"/>
+    </row>
+    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="10"/>
+    </row>
+    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="10"/>
+    </row>
+    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="10"/>
+    </row>
+    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="10"/>
+    </row>
+    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="10"/>
+    </row>
+    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="10"/>
+    </row>
+    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="10"/>
+    </row>
+    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="10"/>
+    </row>
+    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="10"/>
+    </row>
+    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="10"/>
+    </row>
+    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="10"/>
+    </row>
+    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="10"/>
+    </row>
+    <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="10"/>
+    </row>
+    <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="10"/>
+    </row>
+    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="10"/>
+    </row>
+    <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="10"/>
+    </row>
+    <row r="41" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="5"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="2"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B49" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C52" s="2"/>
+    </row>
+    <row r="53" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" s="4"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C54" s="2"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" s="13">
+        <v>1000000000000</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" s="13">
+        <v>1000000000000</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="5"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="2"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" s="2"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B59" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="5"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B61" s="12">
+        <v>2015</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B62" s="12">
+        <v>1</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B63" s="12">
+        <v>1</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D63" s="2"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B64" s="12">
+        <v>1</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D64" s="2"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B65" s="12">
+        <v>2015</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D65" s="2"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B66" s="12">
+        <v>12</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B67" s="12">
+        <v>31</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B68" s="12">
+        <v>24</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" s="5"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B71" s="14">
+        <v>2.4911838084243729E-2</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B72" s="13">
+        <f>0.00000001</f>
+        <v>1E-8</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D72" s="2"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" s="5"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B75" s="14">
+        <v>2.0648572594225215E-2</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B76" s="13">
+        <v>1.0999999999999999E-8</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D76" s="2"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" s="5"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B78" s="14">
+        <v>1.1841887362491711E-2</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D78" s="16">
+        <v>2.7271220888813726E-2</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B79" s="14">
+        <v>2.2590009128958689E-2</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D79" s="16">
+        <v>2.9679010772171249E-2</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" s="5"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B81" s="14">
+        <v>6.2433901191501419E-2</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B82" s="14">
+        <v>2.5158160216169324E-2</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D82" s="2"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" s="5"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B84" s="12">
+        <f>261*0.08/8760</f>
+        <v>2.3835616438356165E-3</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85" s="12">
+        <v>0</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D85" s="2"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B86" s="12">
+        <v>0</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D86" s="2"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B87" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+    </row>
+    <row r="88" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B88" s="12">
+        <f>1.01^(1/(24*365.24/12))-1</f>
+        <v>1.3621726294266168E-5</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B89" s="12">
+        <v>6</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" s="5"/>
+      <c r="B90" s="12"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B91" s="12">
+        <v>2.7397260273972604E-6</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D91" s="12">
+        <f>0.3*0.08/8760</f>
+        <v>2.7397260273972604E-6</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B92" s="12">
+        <f>1100*0.08/8760</f>
+        <v>1.0045662100456621E-2</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B93" s="12">
+        <f>4600*0.08/8760</f>
+        <v>4.2009132420091327E-2</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B94" s="12">
+        <v>0</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D94" s="2"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B95" s="12">
+        <v>0</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D95" s="2"/>
+    </row>
+    <row r="96" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B96" s="12">
+        <v>1.1351367708023474E-6</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D96" s="12">
+        <f>1.01^(1/(24*365.24))-1</f>
+        <v>1.1351367708023474E-6</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A97" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B97" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A98" s="5"/>
+      <c r="B98" s="12"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A99" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B99" s="12">
+        <v>10</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D99" s="2"/>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C100" s="10"/>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C101" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C102" s="4"/>
+    </row>
+    <row r="103" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A103" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H103" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I103" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J103" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="K103" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="L103" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="M103" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="N103" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="O103" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="P103" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q103" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="R103" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="S103" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="T103" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B104" s="1"/>
+    </row>
+    <row r="105" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B105" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="C105" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="D105" s="15">
+        <v>1</v>
+      </c>
+      <c r="E105" s="15">
+        <v>1</v>
+      </c>
+      <c r="F105" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G105" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H105" s="15">
+        <v>0.86666666666666003</v>
+      </c>
+      <c r="I105" s="15">
+        <v>0.86666666666666003</v>
+      </c>
+      <c r="J105" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="K105" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="L105" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="M105" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="N105" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="O105" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="P105" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="Q105" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="R105" s="15">
+        <v>1</v>
+      </c>
+      <c r="S105" s="17">
+        <v>100000000</v>
+      </c>
+      <c r="T105" s="17">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B106" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="C106" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="D106" s="15">
+        <v>1</v>
+      </c>
+      <c r="E106" s="15">
+        <v>1</v>
+      </c>
+      <c r="F106" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G106" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H106" s="15">
+        <v>0.86666666666666003</v>
+      </c>
+      <c r="I106" s="15">
+        <v>0.86666666666666003</v>
+      </c>
+      <c r="J106" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="K106" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="L106" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="M106" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="N106" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="O106" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="P106" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="Q106" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="R106" s="15">
+        <v>1</v>
+      </c>
+      <c r="S106" s="17">
+        <v>1000000000</v>
+      </c>
+      <c r="T106" s="17">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B107" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="C107" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="D107" s="15">
+        <v>1</v>
+      </c>
+      <c r="E107" s="15">
+        <v>1</v>
+      </c>
+      <c r="F107" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G107" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H107" s="15">
+        <v>0.86666666666666003</v>
+      </c>
+      <c r="I107" s="15">
+        <v>0.86666666666666003</v>
+      </c>
+      <c r="J107" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="K107" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="L107" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="M107" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="N107" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="O107" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="P107" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="Q107" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="R107" s="15">
+        <v>1</v>
+      </c>
+      <c r="S107" s="17">
+        <v>10000000000</v>
+      </c>
+      <c r="T107" s="17">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B108" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="C108" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="D108" s="15">
+        <v>1</v>
+      </c>
+      <c r="E108" s="15">
+        <v>1</v>
+      </c>
+      <c r="F108" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G108" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H108" s="15">
+        <v>0.86666666666666003</v>
+      </c>
+      <c r="I108" s="15">
+        <v>0.86666666666666003</v>
+      </c>
+      <c r="J108" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="K108" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="L108" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="M108" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="N108" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="O108" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="P108" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="Q108" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="R108" s="15">
+        <v>1</v>
+      </c>
+      <c r="S108" s="17">
+        <v>100000000000</v>
+      </c>
+      <c r="T108" s="17">
+        <v>100000000000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B109" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="C109" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="D109" s="15">
+        <v>1</v>
+      </c>
+      <c r="E109" s="15">
+        <v>1</v>
+      </c>
+      <c r="F109" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G109" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H109" s="15">
+        <v>0.86666666666666003</v>
+      </c>
+      <c r="I109" s="15">
+        <v>0.86666666666666003</v>
+      </c>
+      <c r="J109" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="K109" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="L109" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="M109" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="N109" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="O109" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="P109" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="Q109" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="R109" s="15">
+        <v>1</v>
+      </c>
+      <c r="S109" s="17">
+        <v>1000000000000</v>
+      </c>
+      <c r="T109" s="17">
+        <v>1000000000000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B110" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="C110" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="D110" s="15">
+        <v>1</v>
+      </c>
+      <c r="E110" s="15">
+        <v>1</v>
+      </c>
+      <c r="F110" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G110" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H110" s="15">
+        <v>0.86666666666666003</v>
+      </c>
+      <c r="I110" s="15">
+        <v>0.86666666666666003</v>
+      </c>
+      <c r="J110" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="K110" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="L110" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="M110" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="N110" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="O110" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="P110" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="Q110" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="R110" s="15">
+        <v>1</v>
+      </c>
+      <c r="S110" s="17">
+        <v>10000000000000</v>
+      </c>
+      <c r="T110" s="17">
+        <v>10000000000000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B112" s="11"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A116" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F36335C-F191-4ED6-89FF-CFA62346621A}">
   <dimension ref="A1:T116"/>
   <sheetViews>
@@ -4006,7 +5482,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{515BF5ED-661D-4D09-9F77-3E237FF024FA}">
   <dimension ref="A1:T116"/>
   <sheetViews>
@@ -5287,7 +6763,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D315A23C-713E-4F09-9EE7-90C0F3AF5059}">
   <dimension ref="A1:S112"/>
   <sheetViews>
@@ -6430,6 +7906,4670 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85893841-9BFD-46C3-B477-16FF2E2A896D}">
+  <dimension ref="A1:AG157"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H126" sqref="H126"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="39.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" style="10" customWidth="1"/>
+    <col min="3" max="16384" width="12.54296875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+    </row>
+    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="10"/>
+    </row>
+    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10"/>
+    </row>
+    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="10"/>
+    </row>
+    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="10"/>
+    </row>
+    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="10"/>
+    </row>
+    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="10"/>
+    </row>
+    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="10"/>
+    </row>
+    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10"/>
+    </row>
+    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="10"/>
+    </row>
+    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="10"/>
+    </row>
+    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="10"/>
+    </row>
+    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="10"/>
+    </row>
+    <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="10"/>
+    </row>
+    <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="10"/>
+    </row>
+    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="10"/>
+    </row>
+    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="10"/>
+    </row>
+    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="10"/>
+    </row>
+    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="10"/>
+    </row>
+    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="10"/>
+    </row>
+    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="10"/>
+    </row>
+    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="10"/>
+    </row>
+    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="10"/>
+    </row>
+    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="10"/>
+    </row>
+    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="10"/>
+    </row>
+    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="10"/>
+    </row>
+    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="10"/>
+    </row>
+    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="10"/>
+    </row>
+    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="10"/>
+    </row>
+    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="10"/>
+    </row>
+    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="10"/>
+    </row>
+    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="10"/>
+    </row>
+    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="10"/>
+    </row>
+    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="10"/>
+    </row>
+    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="10"/>
+    </row>
+    <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="10"/>
+    </row>
+    <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="10"/>
+    </row>
+    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="10"/>
+    </row>
+    <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="10"/>
+    </row>
+    <row r="41" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="5"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="2"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B49" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C52" s="2"/>
+    </row>
+    <row r="53" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" s="4"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C54" s="2"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" s="13">
+        <v>1000000000000</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" s="13">
+        <v>1000000000000</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="5"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="2"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" s="2"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B59" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="5"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B61" s="12">
+        <v>2015</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B62" s="12">
+        <v>1</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B63" s="12">
+        <v>1</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D63" s="2"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B64" s="12">
+        <v>1</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D64" s="2"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B65" s="12">
+        <v>2015</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D65" s="2"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B66" s="12">
+        <v>12</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B67" s="12">
+        <v>31</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B68" s="12">
+        <v>24</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" s="5"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B70" s="12">
+        <v>0</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" s="5"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B73" s="19">
+        <v>1.9528741509529837E-2</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D73" s="20">
+        <v>1.9528741509529837E-2</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B74" s="13">
+        <f>0.00000001</f>
+        <v>1E-8</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D74" s="2"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B75" s="13">
+        <v>0</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B76" s="13">
+        <v>0</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" s="5"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B79" s="19">
+        <v>2.0648572594225215E-2</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D79" s="20">
+        <v>2.0648572594225215E-2</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" s="13">
+        <v>2E-8</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D80" s="2"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B81" s="13">
+        <v>0</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B82" s="13">
+        <v>0</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" s="5"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B84" s="19">
+        <v>1.1841887362491711E-2</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D84" s="20">
+        <v>1.1841887362491711E-2</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85" s="19">
+        <v>2.2590009128958689E-2</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D85" s="20">
+        <v>2.2590009128958689E-2</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B86" s="13">
+        <v>0</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B87" s="18">
+        <v>0.49</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" s="5"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B89" s="19">
+        <v>2.7271220888813726E-2</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D89" s="20">
+        <v>2.7271220888813726E-2</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B90" s="19">
+        <v>2.9679010772171249E-2</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D90" s="20">
+        <v>2.9679010772171249E-2</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B91" s="13">
+        <v>0</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B92" s="18">
+        <v>0.17</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" s="5"/>
+      <c r="B93" s="12"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B94" s="19">
+        <v>6.2433901191501419E-2</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D94" s="20">
+        <v>6.2433901191501419E-2</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B95" s="19">
+        <v>2.5158160216169324E-2</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D95" s="20">
+        <v>2.5158160216169324E-2</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B96" s="13">
+        <v>0</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B97" s="13">
+        <v>0</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" s="5"/>
+      <c r="B98" s="12"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99" s="19">
+        <v>4.2392529406082022E-3</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B100" s="12">
+        <v>0</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D100" s="2"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B101" s="12">
+        <v>0</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D101" s="2"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B102" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B103" s="19">
+        <f>1.01^(1/(24*365.24/12))-1</f>
+        <v>1.3621726294266168E-5</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B104" s="12">
+        <v>6</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105" s="5"/>
+      <c r="B105" s="12"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B106" s="19">
+        <v>2.7397260273972604E-6</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D106" s="12">
+        <f>0.3*0.08/8760</f>
+        <v>2.7397260273972604E-6</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B107" s="19">
+        <f>1100*0.08/8760</f>
+        <v>1.0045662100456621E-2</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B108" s="19">
+        <f>4600*0.08/8760</f>
+        <v>4.2009132420091327E-2</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B109" s="12">
+        <v>0</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D109" s="2"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B110" s="12">
+        <v>0</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D110" s="2"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B111" s="12">
+        <f>D111</f>
+        <v>1.1407453648359933E-8</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D111" s="12">
+        <f>1.0001^(1/(24*365.24))-1</f>
+        <v>1.1407453648359933E-8</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B112" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+    </row>
+    <row r="113" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A113" s="5"/>
+      <c r="B113" s="12"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+    </row>
+    <row r="114" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A114" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B114" s="12">
+        <v>10</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D114" s="2"/>
+    </row>
+    <row r="115" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="C115" s="10"/>
+    </row>
+    <row r="116" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="C116" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="117" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B117" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C117" s="4"/>
+    </row>
+    <row r="118" spans="1:33" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A118" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G118" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H118" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="I118" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="J118" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="K118" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="L118" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="M118" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="O118" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="P118" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q118" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="R118" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="S118" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="T118" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="U118" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="V118" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="W118" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="X118" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y118" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z118" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA118" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB118" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC118" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD118" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE118" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF118" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG118" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="119" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="B119" s="1"/>
+    </row>
+    <row r="120" spans="1:33" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="B120" s="15">
+        <v>2015</v>
+      </c>
+      <c r="C120" s="15">
+        <v>2015</v>
+      </c>
+      <c r="E120" s="15">
+        <v>-1</v>
+      </c>
+      <c r="F120" s="15">
+        <v>-1</v>
+      </c>
+      <c r="G120" s="15">
+        <v>-1</v>
+      </c>
+      <c r="H120" s="15">
+        <v>-1</v>
+      </c>
+      <c r="I120" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J120" s="15">
+        <v>-1</v>
+      </c>
+      <c r="K120" s="15">
+        <v>-1</v>
+      </c>
+      <c r="L120" s="15">
+        <v>-1</v>
+      </c>
+      <c r="M120" s="15">
+        <v>-1</v>
+      </c>
+      <c r="O120" s="15">
+        <v>1</v>
+      </c>
+      <c r="P120" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q120" s="15">
+        <v>1</v>
+      </c>
+      <c r="R120" s="15">
+        <v>1</v>
+      </c>
+      <c r="S120" s="15">
+        <v>-1</v>
+      </c>
+      <c r="T120" s="15">
+        <v>-1</v>
+      </c>
+      <c r="U120" s="15">
+        <v>-1</v>
+      </c>
+      <c r="V120" s="15">
+        <v>-1</v>
+      </c>
+      <c r="W120" s="15">
+        <v>-1</v>
+      </c>
+      <c r="X120" s="15">
+        <v>-1</v>
+      </c>
+      <c r="Y120" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z120" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA120" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB120" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AC120" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AD120" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AE120" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AF120" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AG120" s="15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="B121" s="15">
+        <v>1980</v>
+      </c>
+      <c r="C121" s="15">
+        <v>1980</v>
+      </c>
+      <c r="E121" s="15">
+        <v>-1</v>
+      </c>
+      <c r="F121" s="15">
+        <v>-1</v>
+      </c>
+      <c r="G121">
+        <v>1.5404332293062699</v>
+      </c>
+      <c r="H121">
+        <v>4.7876816631453902</v>
+      </c>
+      <c r="I121" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J121">
+        <v>14.0315047052979</v>
+      </c>
+      <c r="K121" s="15">
+        <v>-1</v>
+      </c>
+      <c r="L121" s="15">
+        <v>-1</v>
+      </c>
+      <c r="M121" s="15">
+        <v>-1</v>
+      </c>
+      <c r="O121" s="15">
+        <v>1</v>
+      </c>
+      <c r="P121" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q121" s="15">
+        <v>1</v>
+      </c>
+      <c r="R121" s="15">
+        <v>1</v>
+      </c>
+      <c r="S121" s="15">
+        <v>-1</v>
+      </c>
+      <c r="T121" s="15">
+        <v>-1</v>
+      </c>
+      <c r="U121" s="15">
+        <v>-1</v>
+      </c>
+      <c r="V121" s="15">
+        <v>-1</v>
+      </c>
+      <c r="W121" s="15">
+        <v>-1</v>
+      </c>
+      <c r="X121" s="15">
+        <v>-1</v>
+      </c>
+      <c r="Y121" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z121" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA121" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB121" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AC121" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AD121" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AE121" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AF121" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AG121" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="B122" s="15">
+        <v>1981</v>
+      </c>
+      <c r="C122" s="15">
+        <v>1981</v>
+      </c>
+      <c r="E122" s="15">
+        <v>-1</v>
+      </c>
+      <c r="F122" s="15">
+        <v>-1</v>
+      </c>
+      <c r="G122">
+        <v>1.5404332293062699</v>
+      </c>
+      <c r="H122">
+        <v>4.7876816631453902</v>
+      </c>
+      <c r="I122" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J122">
+        <v>14.0315047052979</v>
+      </c>
+      <c r="K122" s="15">
+        <v>-1</v>
+      </c>
+      <c r="L122" s="15">
+        <v>-1</v>
+      </c>
+      <c r="M122" s="15">
+        <v>-1</v>
+      </c>
+      <c r="O122" s="15">
+        <v>1</v>
+      </c>
+      <c r="P122" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q122" s="15">
+        <v>1</v>
+      </c>
+      <c r="R122" s="15">
+        <v>1</v>
+      </c>
+      <c r="S122" s="15">
+        <v>-1</v>
+      </c>
+      <c r="T122" s="15">
+        <v>-1</v>
+      </c>
+      <c r="U122" s="15">
+        <v>-1</v>
+      </c>
+      <c r="V122" s="15">
+        <v>-1</v>
+      </c>
+      <c r="W122" s="15">
+        <v>-1</v>
+      </c>
+      <c r="X122" s="15">
+        <v>-1</v>
+      </c>
+      <c r="Y122" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z122" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA122" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB122" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AC122" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AD122" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AE122" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AF122" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AG122" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="B123" s="15">
+        <v>1982</v>
+      </c>
+      <c r="C123" s="15">
+        <v>1982</v>
+      </c>
+      <c r="E123" s="15">
+        <v>-1</v>
+      </c>
+      <c r="F123" s="15">
+        <v>-1</v>
+      </c>
+      <c r="G123">
+        <v>1.5404332293062699</v>
+      </c>
+      <c r="H123">
+        <v>4.7876816631453902</v>
+      </c>
+      <c r="I123" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J123">
+        <v>14.0315047052979</v>
+      </c>
+      <c r="K123" s="15">
+        <v>-1</v>
+      </c>
+      <c r="L123" s="15">
+        <v>-1</v>
+      </c>
+      <c r="M123" s="15">
+        <v>-1</v>
+      </c>
+      <c r="O123" s="15">
+        <v>1</v>
+      </c>
+      <c r="P123" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q123" s="15">
+        <v>1</v>
+      </c>
+      <c r="R123" s="15">
+        <v>1</v>
+      </c>
+      <c r="S123" s="15">
+        <v>-1</v>
+      </c>
+      <c r="T123" s="15">
+        <v>-1</v>
+      </c>
+      <c r="U123" s="15">
+        <v>-1</v>
+      </c>
+      <c r="V123" s="15">
+        <v>-1</v>
+      </c>
+      <c r="W123" s="15">
+        <v>-1</v>
+      </c>
+      <c r="X123" s="15">
+        <v>-1</v>
+      </c>
+      <c r="Y123" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z123" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA123" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB123" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AC123" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AD123" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AE123" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AF123" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AG123" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="B124" s="15">
+        <v>1983</v>
+      </c>
+      <c r="C124" s="15">
+        <v>1983</v>
+      </c>
+      <c r="E124" s="15">
+        <v>-1</v>
+      </c>
+      <c r="F124" s="15">
+        <v>-1</v>
+      </c>
+      <c r="G124">
+        <v>1.5404332293062699</v>
+      </c>
+      <c r="H124">
+        <v>4.7876816631453902</v>
+      </c>
+      <c r="I124" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J124">
+        <v>14.0315047052979</v>
+      </c>
+      <c r="K124" s="15">
+        <v>-1</v>
+      </c>
+      <c r="L124" s="15">
+        <v>-1</v>
+      </c>
+      <c r="M124" s="15">
+        <v>-1</v>
+      </c>
+      <c r="O124" s="15">
+        <v>1</v>
+      </c>
+      <c r="P124" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q124" s="15">
+        <v>1</v>
+      </c>
+      <c r="R124" s="15">
+        <v>1</v>
+      </c>
+      <c r="S124" s="15">
+        <v>-1</v>
+      </c>
+      <c r="T124" s="15">
+        <v>-1</v>
+      </c>
+      <c r="U124" s="15">
+        <v>-1</v>
+      </c>
+      <c r="V124" s="15">
+        <v>-1</v>
+      </c>
+      <c r="W124" s="15">
+        <v>-1</v>
+      </c>
+      <c r="X124" s="15">
+        <v>-1</v>
+      </c>
+      <c r="Y124" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z124" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA124" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB124" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AC124" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AD124" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AE124" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AF124" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AG124" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="B125" s="15">
+        <v>1984</v>
+      </c>
+      <c r="C125" s="15">
+        <v>1984</v>
+      </c>
+      <c r="E125" s="15">
+        <v>-1</v>
+      </c>
+      <c r="F125" s="15">
+        <v>-1</v>
+      </c>
+      <c r="G125">
+        <v>1.5404332293062699</v>
+      </c>
+      <c r="H125">
+        <v>4.7876816631453902</v>
+      </c>
+      <c r="I125" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J125">
+        <v>14.0315047052979</v>
+      </c>
+      <c r="K125" s="15">
+        <v>-1</v>
+      </c>
+      <c r="L125" s="15">
+        <v>-1</v>
+      </c>
+      <c r="M125" s="15">
+        <v>-1</v>
+      </c>
+      <c r="N125" s="6"/>
+      <c r="O125" s="15">
+        <v>1</v>
+      </c>
+      <c r="P125" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q125" s="15">
+        <v>1</v>
+      </c>
+      <c r="R125" s="15">
+        <v>1</v>
+      </c>
+      <c r="S125" s="15">
+        <v>-1</v>
+      </c>
+      <c r="T125" s="15">
+        <v>-1</v>
+      </c>
+      <c r="U125" s="15">
+        <v>-1</v>
+      </c>
+      <c r="V125" s="15">
+        <v>-1</v>
+      </c>
+      <c r="W125" s="15">
+        <v>-1</v>
+      </c>
+      <c r="X125" s="15">
+        <v>-1</v>
+      </c>
+      <c r="Y125" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z125" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA125" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB125" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AC125" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AD125" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AE125" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AF125" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AG125" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="B126" s="15">
+        <v>1985</v>
+      </c>
+      <c r="C126" s="15">
+        <v>1985</v>
+      </c>
+      <c r="E126" s="15">
+        <v>-1</v>
+      </c>
+      <c r="F126" s="15">
+        <v>-1</v>
+      </c>
+      <c r="G126">
+        <v>1.5404332293062699</v>
+      </c>
+      <c r="H126">
+        <v>4.7876816631453902</v>
+      </c>
+      <c r="I126" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J126">
+        <v>14.0315047052979</v>
+      </c>
+      <c r="K126" s="15">
+        <v>-1</v>
+      </c>
+      <c r="L126" s="15">
+        <v>-1</v>
+      </c>
+      <c r="M126" s="15">
+        <v>-1</v>
+      </c>
+      <c r="O126" s="15">
+        <v>1</v>
+      </c>
+      <c r="P126" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q126" s="15">
+        <v>1</v>
+      </c>
+      <c r="R126" s="15">
+        <v>1</v>
+      </c>
+      <c r="S126" s="15">
+        <v>-1</v>
+      </c>
+      <c r="T126" s="15">
+        <v>-1</v>
+      </c>
+      <c r="U126" s="15">
+        <v>-1</v>
+      </c>
+      <c r="V126" s="15">
+        <v>-1</v>
+      </c>
+      <c r="W126" s="15">
+        <v>-1</v>
+      </c>
+      <c r="X126" s="15">
+        <v>-1</v>
+      </c>
+      <c r="Y126" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z126" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA126" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB126" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AC126" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AD126" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AE126" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AF126" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AG126" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="B127" s="15">
+        <v>1986</v>
+      </c>
+      <c r="C127" s="15">
+        <v>1986</v>
+      </c>
+      <c r="E127" s="15">
+        <v>-1</v>
+      </c>
+      <c r="F127" s="15">
+        <v>-1</v>
+      </c>
+      <c r="G127">
+        <v>1.5404332293062699</v>
+      </c>
+      <c r="H127">
+        <v>4.7876816631453902</v>
+      </c>
+      <c r="I127" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J127">
+        <v>14.0315047052979</v>
+      </c>
+      <c r="K127" s="15">
+        <v>-1</v>
+      </c>
+      <c r="L127" s="15">
+        <v>-1</v>
+      </c>
+      <c r="M127" s="15">
+        <v>-1</v>
+      </c>
+      <c r="O127" s="15">
+        <v>1</v>
+      </c>
+      <c r="P127" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q127" s="15">
+        <v>1</v>
+      </c>
+      <c r="R127" s="15">
+        <v>1</v>
+      </c>
+      <c r="S127" s="15">
+        <v>-1</v>
+      </c>
+      <c r="T127" s="15">
+        <v>-1</v>
+      </c>
+      <c r="U127" s="15">
+        <v>-1</v>
+      </c>
+      <c r="V127" s="15">
+        <v>-1</v>
+      </c>
+      <c r="W127" s="15">
+        <v>-1</v>
+      </c>
+      <c r="X127" s="15">
+        <v>-1</v>
+      </c>
+      <c r="Y127" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z127" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA127" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB127" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AC127" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AD127" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AE127" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AF127" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AG127" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="B128" s="15">
+        <v>1987</v>
+      </c>
+      <c r="C128" s="15">
+        <v>1987</v>
+      </c>
+      <c r="E128" s="15">
+        <v>-1</v>
+      </c>
+      <c r="F128" s="15">
+        <v>-1</v>
+      </c>
+      <c r="G128">
+        <v>1.5404332293062699</v>
+      </c>
+      <c r="H128">
+        <v>4.7876816631453902</v>
+      </c>
+      <c r="I128" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J128">
+        <v>14.0315047052979</v>
+      </c>
+      <c r="K128" s="15">
+        <v>-1</v>
+      </c>
+      <c r="L128" s="15">
+        <v>-1</v>
+      </c>
+      <c r="M128" s="15">
+        <v>-1</v>
+      </c>
+      <c r="O128" s="15">
+        <v>1</v>
+      </c>
+      <c r="P128" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q128" s="15">
+        <v>1</v>
+      </c>
+      <c r="R128" s="15">
+        <v>1</v>
+      </c>
+      <c r="S128" s="15">
+        <v>-1</v>
+      </c>
+      <c r="T128" s="15">
+        <v>-1</v>
+      </c>
+      <c r="U128" s="15">
+        <v>-1</v>
+      </c>
+      <c r="V128" s="15">
+        <v>-1</v>
+      </c>
+      <c r="W128" s="15">
+        <v>-1</v>
+      </c>
+      <c r="X128" s="15">
+        <v>-1</v>
+      </c>
+      <c r="Y128" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z128" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA128" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB128" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AC128" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AD128" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AE128" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AF128" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AG128" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="B129" s="15">
+        <v>1988</v>
+      </c>
+      <c r="C129" s="15">
+        <v>1988</v>
+      </c>
+      <c r="E129" s="15">
+        <v>-1</v>
+      </c>
+      <c r="F129" s="15">
+        <v>-1</v>
+      </c>
+      <c r="G129">
+        <v>1.5404332293062699</v>
+      </c>
+      <c r="H129">
+        <v>4.7876816631453902</v>
+      </c>
+      <c r="I129" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J129">
+        <v>14.0315047052979</v>
+      </c>
+      <c r="K129" s="15">
+        <v>-1</v>
+      </c>
+      <c r="L129" s="15">
+        <v>-1</v>
+      </c>
+      <c r="M129" s="15">
+        <v>-1</v>
+      </c>
+      <c r="O129" s="15">
+        <v>1</v>
+      </c>
+      <c r="P129" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q129" s="15">
+        <v>1</v>
+      </c>
+      <c r="R129" s="15">
+        <v>1</v>
+      </c>
+      <c r="S129" s="15">
+        <v>-1</v>
+      </c>
+      <c r="T129" s="15">
+        <v>-1</v>
+      </c>
+      <c r="U129" s="15">
+        <v>-1</v>
+      </c>
+      <c r="V129" s="15">
+        <v>-1</v>
+      </c>
+      <c r="W129" s="15">
+        <v>-1</v>
+      </c>
+      <c r="X129" s="15">
+        <v>-1</v>
+      </c>
+      <c r="Y129" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z129" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA129" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB129" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AC129" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AD129" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AE129" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AF129" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AG129" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="B130" s="15">
+        <v>1989</v>
+      </c>
+      <c r="C130" s="15">
+        <v>1989</v>
+      </c>
+      <c r="E130" s="15">
+        <v>-1</v>
+      </c>
+      <c r="F130" s="15">
+        <v>-1</v>
+      </c>
+      <c r="G130">
+        <v>1.5404332293062699</v>
+      </c>
+      <c r="H130">
+        <v>4.7876816631453902</v>
+      </c>
+      <c r="I130" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J130">
+        <v>14.0315047052979</v>
+      </c>
+      <c r="K130" s="15">
+        <v>-1</v>
+      </c>
+      <c r="L130" s="15">
+        <v>-1</v>
+      </c>
+      <c r="M130" s="15">
+        <v>-1</v>
+      </c>
+      <c r="O130" s="15">
+        <v>1</v>
+      </c>
+      <c r="P130" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q130" s="15">
+        <v>1</v>
+      </c>
+      <c r="R130" s="15">
+        <v>1</v>
+      </c>
+      <c r="S130" s="15">
+        <v>-1</v>
+      </c>
+      <c r="T130" s="15">
+        <v>-1</v>
+      </c>
+      <c r="U130" s="15">
+        <v>-1</v>
+      </c>
+      <c r="V130" s="15">
+        <v>-1</v>
+      </c>
+      <c r="W130" s="15">
+        <v>-1</v>
+      </c>
+      <c r="X130" s="15">
+        <v>-1</v>
+      </c>
+      <c r="Y130" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z130" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA130" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB130" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AC130" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AD130" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AE130" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AF130" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AG130" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="B131" s="15">
+        <v>1990</v>
+      </c>
+      <c r="C131" s="15">
+        <v>1990</v>
+      </c>
+      <c r="E131" s="15">
+        <v>-1</v>
+      </c>
+      <c r="F131" s="15">
+        <v>-1</v>
+      </c>
+      <c r="G131">
+        <v>1.5404332293062699</v>
+      </c>
+      <c r="H131">
+        <v>4.7876816631453902</v>
+      </c>
+      <c r="I131" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J131">
+        <v>14.0315047052979</v>
+      </c>
+      <c r="K131" s="15">
+        <v>-1</v>
+      </c>
+      <c r="L131" s="15">
+        <v>-1</v>
+      </c>
+      <c r="M131" s="15">
+        <v>-1</v>
+      </c>
+      <c r="O131" s="15">
+        <v>1</v>
+      </c>
+      <c r="P131" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q131" s="15">
+        <v>1</v>
+      </c>
+      <c r="R131" s="15">
+        <v>1</v>
+      </c>
+      <c r="S131" s="15">
+        <v>-1</v>
+      </c>
+      <c r="T131" s="15">
+        <v>-1</v>
+      </c>
+      <c r="U131" s="15">
+        <v>-1</v>
+      </c>
+      <c r="V131" s="15">
+        <v>-1</v>
+      </c>
+      <c r="W131" s="15">
+        <v>-1</v>
+      </c>
+      <c r="X131" s="15">
+        <v>-1</v>
+      </c>
+      <c r="Y131" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z131" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA131" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB131" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AC131" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AD131" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AE131" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AF131" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AG131" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="B132" s="15">
+        <v>1991</v>
+      </c>
+      <c r="C132" s="15">
+        <v>1991</v>
+      </c>
+      <c r="E132" s="15">
+        <v>-1</v>
+      </c>
+      <c r="F132" s="15">
+        <v>-1</v>
+      </c>
+      <c r="G132">
+        <v>1.5404332293062699</v>
+      </c>
+      <c r="H132">
+        <v>4.7876816631453902</v>
+      </c>
+      <c r="I132" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J132">
+        <v>14.0315047052979</v>
+      </c>
+      <c r="K132" s="15">
+        <v>-1</v>
+      </c>
+      <c r="L132" s="15">
+        <v>-1</v>
+      </c>
+      <c r="M132" s="15">
+        <v>-1</v>
+      </c>
+      <c r="O132" s="15">
+        <v>1</v>
+      </c>
+      <c r="P132" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q132" s="15">
+        <v>1</v>
+      </c>
+      <c r="R132" s="15">
+        <v>1</v>
+      </c>
+      <c r="S132" s="15">
+        <v>-1</v>
+      </c>
+      <c r="T132" s="15">
+        <v>-1</v>
+      </c>
+      <c r="U132" s="15">
+        <v>-1</v>
+      </c>
+      <c r="V132" s="15">
+        <v>-1</v>
+      </c>
+      <c r="W132" s="15">
+        <v>-1</v>
+      </c>
+      <c r="X132" s="15">
+        <v>-1</v>
+      </c>
+      <c r="Y132" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z132" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA132" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB132" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AC132" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AD132" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AE132" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AF132" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AG132" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="B133" s="15">
+        <v>1992</v>
+      </c>
+      <c r="C133" s="15">
+        <v>1992</v>
+      </c>
+      <c r="E133" s="15">
+        <v>-1</v>
+      </c>
+      <c r="F133" s="15">
+        <v>-1</v>
+      </c>
+      <c r="G133">
+        <v>1.5404332293062699</v>
+      </c>
+      <c r="H133">
+        <v>4.7876816631453902</v>
+      </c>
+      <c r="I133" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J133">
+        <v>14.0315047052979</v>
+      </c>
+      <c r="K133" s="15">
+        <v>-1</v>
+      </c>
+      <c r="L133" s="15">
+        <v>-1</v>
+      </c>
+      <c r="M133" s="15">
+        <v>-1</v>
+      </c>
+      <c r="O133" s="15">
+        <v>1</v>
+      </c>
+      <c r="P133" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q133" s="15">
+        <v>1</v>
+      </c>
+      <c r="R133" s="15">
+        <v>1</v>
+      </c>
+      <c r="S133" s="15">
+        <v>-1</v>
+      </c>
+      <c r="T133" s="15">
+        <v>-1</v>
+      </c>
+      <c r="U133" s="15">
+        <v>-1</v>
+      </c>
+      <c r="V133" s="15">
+        <v>-1</v>
+      </c>
+      <c r="W133" s="15">
+        <v>-1</v>
+      </c>
+      <c r="X133" s="15">
+        <v>-1</v>
+      </c>
+      <c r="Y133" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z133" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA133" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB133" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AC133" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AD133" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AE133" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AF133" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AG133" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="B134" s="15">
+        <v>1993</v>
+      </c>
+      <c r="C134" s="15">
+        <v>1993</v>
+      </c>
+      <c r="E134" s="15">
+        <v>-1</v>
+      </c>
+      <c r="F134" s="15">
+        <v>-1</v>
+      </c>
+      <c r="G134">
+        <v>1.5404332293062699</v>
+      </c>
+      <c r="H134">
+        <v>4.7876816631453902</v>
+      </c>
+      <c r="I134" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J134">
+        <v>14.0315047052979</v>
+      </c>
+      <c r="K134" s="15">
+        <v>-1</v>
+      </c>
+      <c r="L134" s="15">
+        <v>-1</v>
+      </c>
+      <c r="M134" s="15">
+        <v>-1</v>
+      </c>
+      <c r="O134" s="15">
+        <v>1</v>
+      </c>
+      <c r="P134" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q134" s="15">
+        <v>1</v>
+      </c>
+      <c r="R134" s="15">
+        <v>1</v>
+      </c>
+      <c r="S134" s="15">
+        <v>-1</v>
+      </c>
+      <c r="T134" s="15">
+        <v>-1</v>
+      </c>
+      <c r="U134" s="15">
+        <v>-1</v>
+      </c>
+      <c r="V134" s="15">
+        <v>-1</v>
+      </c>
+      <c r="W134" s="15">
+        <v>-1</v>
+      </c>
+      <c r="X134" s="15">
+        <v>-1</v>
+      </c>
+      <c r="Y134" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z134" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA134" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB134" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AC134" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AD134" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AE134" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AF134" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AG134" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B135" s="15">
+        <v>1994</v>
+      </c>
+      <c r="C135" s="15">
+        <v>1994</v>
+      </c>
+      <c r="E135" s="15">
+        <v>-1</v>
+      </c>
+      <c r="F135" s="15">
+        <v>-1</v>
+      </c>
+      <c r="G135">
+        <v>1.5404332293062699</v>
+      </c>
+      <c r="H135">
+        <v>4.7876816631453902</v>
+      </c>
+      <c r="I135" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J135">
+        <v>14.0315047052979</v>
+      </c>
+      <c r="K135" s="15">
+        <v>-1</v>
+      </c>
+      <c r="L135" s="15">
+        <v>-1</v>
+      </c>
+      <c r="M135" s="15">
+        <v>-1</v>
+      </c>
+      <c r="O135" s="15">
+        <v>1</v>
+      </c>
+      <c r="P135" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q135" s="15">
+        <v>1</v>
+      </c>
+      <c r="R135" s="15">
+        <v>1</v>
+      </c>
+      <c r="S135" s="15">
+        <v>-1</v>
+      </c>
+      <c r="T135" s="15">
+        <v>-1</v>
+      </c>
+      <c r="U135" s="15">
+        <v>-1</v>
+      </c>
+      <c r="V135" s="15">
+        <v>-1</v>
+      </c>
+      <c r="W135" s="15">
+        <v>-1</v>
+      </c>
+      <c r="X135" s="15">
+        <v>-1</v>
+      </c>
+      <c r="Y135" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z135" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA135" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB135" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AC135" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AD135" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AE135" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AF135" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AG135" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="B136" s="15">
+        <v>1995</v>
+      </c>
+      <c r="C136" s="15">
+        <v>1995</v>
+      </c>
+      <c r="E136" s="15">
+        <v>-1</v>
+      </c>
+      <c r="F136" s="15">
+        <v>-1</v>
+      </c>
+      <c r="G136">
+        <v>1.5404332293062699</v>
+      </c>
+      <c r="H136">
+        <v>4.7876816631453902</v>
+      </c>
+      <c r="I136" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J136">
+        <v>14.0315047052979</v>
+      </c>
+      <c r="K136" s="15">
+        <v>-1</v>
+      </c>
+      <c r="L136" s="15">
+        <v>-1</v>
+      </c>
+      <c r="M136" s="15">
+        <v>-1</v>
+      </c>
+      <c r="O136" s="15">
+        <v>1</v>
+      </c>
+      <c r="P136" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q136" s="15">
+        <v>1</v>
+      </c>
+      <c r="R136" s="15">
+        <v>1</v>
+      </c>
+      <c r="S136" s="15">
+        <v>-1</v>
+      </c>
+      <c r="T136" s="15">
+        <v>-1</v>
+      </c>
+      <c r="U136" s="15">
+        <v>-1</v>
+      </c>
+      <c r="V136" s="15">
+        <v>-1</v>
+      </c>
+      <c r="W136" s="15">
+        <v>-1</v>
+      </c>
+      <c r="X136" s="15">
+        <v>-1</v>
+      </c>
+      <c r="Y136" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z136" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA136" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB136" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AC136" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AD136" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AE136" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AF136" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AG136" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="B137" s="15">
+        <v>1996</v>
+      </c>
+      <c r="C137" s="15">
+        <v>1996</v>
+      </c>
+      <c r="E137" s="15">
+        <v>-1</v>
+      </c>
+      <c r="F137" s="15">
+        <v>-1</v>
+      </c>
+      <c r="G137">
+        <v>1.5404332293062699</v>
+      </c>
+      <c r="H137">
+        <v>4.7876816631453902</v>
+      </c>
+      <c r="I137" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J137">
+        <v>14.0315047052979</v>
+      </c>
+      <c r="K137" s="15">
+        <v>-1</v>
+      </c>
+      <c r="L137" s="15">
+        <v>-1</v>
+      </c>
+      <c r="M137" s="15">
+        <v>-1</v>
+      </c>
+      <c r="O137" s="15">
+        <v>1</v>
+      </c>
+      <c r="P137" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q137" s="15">
+        <v>1</v>
+      </c>
+      <c r="R137" s="15">
+        <v>1</v>
+      </c>
+      <c r="S137" s="15">
+        <v>-1</v>
+      </c>
+      <c r="T137" s="15">
+        <v>-1</v>
+      </c>
+      <c r="U137" s="15">
+        <v>-1</v>
+      </c>
+      <c r="V137" s="15">
+        <v>-1</v>
+      </c>
+      <c r="W137" s="15">
+        <v>-1</v>
+      </c>
+      <c r="X137" s="15">
+        <v>-1</v>
+      </c>
+      <c r="Y137" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z137" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA137" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB137" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AC137" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AD137" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AE137" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AF137" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AG137" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="B138" s="15">
+        <v>1997</v>
+      </c>
+      <c r="C138" s="15">
+        <v>1997</v>
+      </c>
+      <c r="E138" s="15">
+        <v>-1</v>
+      </c>
+      <c r="F138" s="15">
+        <v>-1</v>
+      </c>
+      <c r="G138">
+        <v>1.5404332293062699</v>
+      </c>
+      <c r="H138">
+        <v>4.7876816631453902</v>
+      </c>
+      <c r="I138" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J138">
+        <v>14.0315047052979</v>
+      </c>
+      <c r="K138" s="15">
+        <v>-1</v>
+      </c>
+      <c r="L138" s="15">
+        <v>-1</v>
+      </c>
+      <c r="M138" s="15">
+        <v>-1</v>
+      </c>
+      <c r="O138" s="15">
+        <v>1</v>
+      </c>
+      <c r="P138" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q138" s="15">
+        <v>1</v>
+      </c>
+      <c r="R138" s="15">
+        <v>1</v>
+      </c>
+      <c r="S138" s="15">
+        <v>-1</v>
+      </c>
+      <c r="T138" s="15">
+        <v>-1</v>
+      </c>
+      <c r="U138" s="15">
+        <v>-1</v>
+      </c>
+      <c r="V138" s="15">
+        <v>-1</v>
+      </c>
+      <c r="W138" s="15">
+        <v>-1</v>
+      </c>
+      <c r="X138" s="15">
+        <v>-1</v>
+      </c>
+      <c r="Y138" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z138" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA138" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB138" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AC138" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AD138" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AE138" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AF138" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AG138" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="B139" s="15">
+        <v>1998</v>
+      </c>
+      <c r="C139" s="15">
+        <v>1998</v>
+      </c>
+      <c r="E139" s="15">
+        <v>-1</v>
+      </c>
+      <c r="F139" s="15">
+        <v>-1</v>
+      </c>
+      <c r="G139">
+        <v>1.5404332293062699</v>
+      </c>
+      <c r="H139">
+        <v>4.7876816631453902</v>
+      </c>
+      <c r="I139" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J139">
+        <v>14.0315047052979</v>
+      </c>
+      <c r="K139" s="15">
+        <v>-1</v>
+      </c>
+      <c r="L139" s="15">
+        <v>-1</v>
+      </c>
+      <c r="M139" s="15">
+        <v>-1</v>
+      </c>
+      <c r="O139" s="15">
+        <v>1</v>
+      </c>
+      <c r="P139" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q139" s="15">
+        <v>1</v>
+      </c>
+      <c r="R139" s="15">
+        <v>1</v>
+      </c>
+      <c r="S139" s="15">
+        <v>-1</v>
+      </c>
+      <c r="T139" s="15">
+        <v>-1</v>
+      </c>
+      <c r="U139" s="15">
+        <v>-1</v>
+      </c>
+      <c r="V139" s="15">
+        <v>-1</v>
+      </c>
+      <c r="W139" s="15">
+        <v>-1</v>
+      </c>
+      <c r="X139" s="15">
+        <v>-1</v>
+      </c>
+      <c r="Y139" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z139" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA139" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB139" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AC139" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AD139" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AE139" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AF139" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AG139" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="B140" s="15">
+        <v>1999</v>
+      </c>
+      <c r="C140" s="15">
+        <v>1999</v>
+      </c>
+      <c r="E140" s="15">
+        <v>-1</v>
+      </c>
+      <c r="F140" s="15">
+        <v>-1</v>
+      </c>
+      <c r="G140">
+        <v>1.5404332293062699</v>
+      </c>
+      <c r="H140">
+        <v>4.7876816631453902</v>
+      </c>
+      <c r="I140" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J140">
+        <v>14.0315047052979</v>
+      </c>
+      <c r="K140" s="15">
+        <v>-1</v>
+      </c>
+      <c r="L140" s="15">
+        <v>-1</v>
+      </c>
+      <c r="M140" s="15">
+        <v>-1</v>
+      </c>
+      <c r="O140" s="15">
+        <v>1</v>
+      </c>
+      <c r="P140" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q140" s="15">
+        <v>1</v>
+      </c>
+      <c r="R140" s="15">
+        <v>1</v>
+      </c>
+      <c r="S140" s="15">
+        <v>-1</v>
+      </c>
+      <c r="T140" s="15">
+        <v>-1</v>
+      </c>
+      <c r="U140" s="15">
+        <v>-1</v>
+      </c>
+      <c r="V140" s="15">
+        <v>-1</v>
+      </c>
+      <c r="W140" s="15">
+        <v>-1</v>
+      </c>
+      <c r="X140" s="15">
+        <v>-1</v>
+      </c>
+      <c r="Y140" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z140" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA140" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB140" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AC140" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AD140" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AE140" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AF140" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AG140" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="B141" s="15">
+        <v>2000</v>
+      </c>
+      <c r="C141" s="15">
+        <v>2000</v>
+      </c>
+      <c r="E141" s="15">
+        <v>-1</v>
+      </c>
+      <c r="F141" s="15">
+        <v>-1</v>
+      </c>
+      <c r="G141">
+        <v>1.5404332293062699</v>
+      </c>
+      <c r="H141">
+        <v>4.7876816631453902</v>
+      </c>
+      <c r="I141" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J141">
+        <v>14.0315047052979</v>
+      </c>
+      <c r="K141" s="15">
+        <v>-1</v>
+      </c>
+      <c r="L141" s="15">
+        <v>-1</v>
+      </c>
+      <c r="M141" s="15">
+        <v>-1</v>
+      </c>
+      <c r="O141" s="15">
+        <v>1</v>
+      </c>
+      <c r="P141" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q141" s="15">
+        <v>1</v>
+      </c>
+      <c r="R141" s="15">
+        <v>1</v>
+      </c>
+      <c r="S141" s="15">
+        <v>-1</v>
+      </c>
+      <c r="T141" s="15">
+        <v>-1</v>
+      </c>
+      <c r="U141" s="15">
+        <v>-1</v>
+      </c>
+      <c r="V141" s="15">
+        <v>-1</v>
+      </c>
+      <c r="W141" s="15">
+        <v>-1</v>
+      </c>
+      <c r="X141" s="15">
+        <v>-1</v>
+      </c>
+      <c r="Y141" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z141" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA141" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB141" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AC141" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AD141" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AE141" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AF141" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AG141" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="B142" s="15">
+        <v>2001</v>
+      </c>
+      <c r="C142" s="15">
+        <v>2001</v>
+      </c>
+      <c r="E142" s="15">
+        <v>-1</v>
+      </c>
+      <c r="F142" s="15">
+        <v>-1</v>
+      </c>
+      <c r="G142">
+        <v>1.5404332293062699</v>
+      </c>
+      <c r="H142">
+        <v>4.7876816631453902</v>
+      </c>
+      <c r="I142" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J142">
+        <v>14.0315047052979</v>
+      </c>
+      <c r="K142" s="15">
+        <v>-1</v>
+      </c>
+      <c r="L142" s="15">
+        <v>-1</v>
+      </c>
+      <c r="M142" s="15">
+        <v>-1</v>
+      </c>
+      <c r="O142" s="15">
+        <v>1</v>
+      </c>
+      <c r="P142" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q142" s="15">
+        <v>1</v>
+      </c>
+      <c r="R142" s="15">
+        <v>1</v>
+      </c>
+      <c r="S142" s="15">
+        <v>-1</v>
+      </c>
+      <c r="T142" s="15">
+        <v>-1</v>
+      </c>
+      <c r="U142" s="15">
+        <v>-1</v>
+      </c>
+      <c r="V142" s="15">
+        <v>-1</v>
+      </c>
+      <c r="W142" s="15">
+        <v>-1</v>
+      </c>
+      <c r="X142" s="15">
+        <v>-1</v>
+      </c>
+      <c r="Y142" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z142" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA142" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB142" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AC142" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AD142" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AE142" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AF142" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AG142" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="B143" s="15">
+        <v>2002</v>
+      </c>
+      <c r="C143" s="15">
+        <v>2002</v>
+      </c>
+      <c r="E143" s="15">
+        <v>-1</v>
+      </c>
+      <c r="F143" s="15">
+        <v>-1</v>
+      </c>
+      <c r="G143">
+        <v>1.5404332293062699</v>
+      </c>
+      <c r="H143">
+        <v>4.7876816631453902</v>
+      </c>
+      <c r="I143" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J143">
+        <v>14.0315047052979</v>
+      </c>
+      <c r="K143" s="15">
+        <v>-1</v>
+      </c>
+      <c r="L143" s="15">
+        <v>-1</v>
+      </c>
+      <c r="M143" s="15">
+        <v>-1</v>
+      </c>
+      <c r="O143" s="15">
+        <v>1</v>
+      </c>
+      <c r="P143" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q143" s="15">
+        <v>1</v>
+      </c>
+      <c r="R143" s="15">
+        <v>1</v>
+      </c>
+      <c r="S143" s="15">
+        <v>-1</v>
+      </c>
+      <c r="T143" s="15">
+        <v>-1</v>
+      </c>
+      <c r="U143" s="15">
+        <v>-1</v>
+      </c>
+      <c r="V143" s="15">
+        <v>-1</v>
+      </c>
+      <c r="W143" s="15">
+        <v>-1</v>
+      </c>
+      <c r="X143" s="15">
+        <v>-1</v>
+      </c>
+      <c r="Y143" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z143" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA143" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB143" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AC143" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AD143" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AE143" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AF143" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AG143" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="B144" s="15">
+        <v>2003</v>
+      </c>
+      <c r="C144" s="15">
+        <v>2003</v>
+      </c>
+      <c r="E144" s="15">
+        <v>-1</v>
+      </c>
+      <c r="F144" s="15">
+        <v>-1</v>
+      </c>
+      <c r="G144">
+        <v>1.5404332293062699</v>
+      </c>
+      <c r="H144">
+        <v>4.7876816631453902</v>
+      </c>
+      <c r="I144" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J144">
+        <v>14.0315047052979</v>
+      </c>
+      <c r="K144" s="15">
+        <v>-1</v>
+      </c>
+      <c r="L144" s="15">
+        <v>-1</v>
+      </c>
+      <c r="M144" s="15">
+        <v>-1</v>
+      </c>
+      <c r="O144" s="15">
+        <v>1</v>
+      </c>
+      <c r="P144" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q144" s="15">
+        <v>1</v>
+      </c>
+      <c r="R144" s="15">
+        <v>1</v>
+      </c>
+      <c r="S144" s="15">
+        <v>-1</v>
+      </c>
+      <c r="T144" s="15">
+        <v>-1</v>
+      </c>
+      <c r="U144" s="15">
+        <v>-1</v>
+      </c>
+      <c r="V144" s="15">
+        <v>-1</v>
+      </c>
+      <c r="W144" s="15">
+        <v>-1</v>
+      </c>
+      <c r="X144" s="15">
+        <v>-1</v>
+      </c>
+      <c r="Y144" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z144" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA144" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB144" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AC144" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AD144" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AE144" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AF144" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AG144" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="B145" s="15">
+        <v>2004</v>
+      </c>
+      <c r="C145" s="15">
+        <v>2004</v>
+      </c>
+      <c r="E145" s="15">
+        <v>-1</v>
+      </c>
+      <c r="F145" s="15">
+        <v>-1</v>
+      </c>
+      <c r="G145">
+        <v>1.5404332293062699</v>
+      </c>
+      <c r="H145">
+        <v>4.7876816631453902</v>
+      </c>
+      <c r="I145" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J145">
+        <v>14.0315047052979</v>
+      </c>
+      <c r="K145" s="15">
+        <v>-1</v>
+      </c>
+      <c r="L145" s="15">
+        <v>-1</v>
+      </c>
+      <c r="M145" s="15">
+        <v>-1</v>
+      </c>
+      <c r="O145" s="15">
+        <v>1</v>
+      </c>
+      <c r="P145" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q145" s="15">
+        <v>1</v>
+      </c>
+      <c r="R145" s="15">
+        <v>1</v>
+      </c>
+      <c r="S145" s="15">
+        <v>-1</v>
+      </c>
+      <c r="T145" s="15">
+        <v>-1</v>
+      </c>
+      <c r="U145" s="15">
+        <v>-1</v>
+      </c>
+      <c r="V145" s="15">
+        <v>-1</v>
+      </c>
+      <c r="W145" s="15">
+        <v>-1</v>
+      </c>
+      <c r="X145" s="15">
+        <v>-1</v>
+      </c>
+      <c r="Y145" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z145" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA145" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB145" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AC145" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AD145" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AE145" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AF145" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AG145" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="B146" s="15">
+        <v>2005</v>
+      </c>
+      <c r="C146" s="15">
+        <v>2005</v>
+      </c>
+      <c r="E146" s="15">
+        <v>-1</v>
+      </c>
+      <c r="F146" s="15">
+        <v>-1</v>
+      </c>
+      <c r="G146">
+        <v>1.5404332293062699</v>
+      </c>
+      <c r="H146">
+        <v>4.7876816631453902</v>
+      </c>
+      <c r="I146" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J146">
+        <v>14.0315047052979</v>
+      </c>
+      <c r="K146" s="15">
+        <v>-1</v>
+      </c>
+      <c r="L146" s="15">
+        <v>-1</v>
+      </c>
+      <c r="M146" s="15">
+        <v>-1</v>
+      </c>
+      <c r="O146" s="15">
+        <v>1</v>
+      </c>
+      <c r="P146" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q146" s="15">
+        <v>1</v>
+      </c>
+      <c r="R146" s="15">
+        <v>1</v>
+      </c>
+      <c r="S146" s="15">
+        <v>-1</v>
+      </c>
+      <c r="T146" s="15">
+        <v>-1</v>
+      </c>
+      <c r="U146" s="15">
+        <v>-1</v>
+      </c>
+      <c r="V146" s="15">
+        <v>-1</v>
+      </c>
+      <c r="W146" s="15">
+        <v>-1</v>
+      </c>
+      <c r="X146" s="15">
+        <v>-1</v>
+      </c>
+      <c r="Y146" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z146" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA146" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB146" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AC146" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AD146" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AE146" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AF146" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AG146" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="B147" s="15">
+        <v>2006</v>
+      </c>
+      <c r="C147" s="15">
+        <v>2006</v>
+      </c>
+      <c r="E147" s="15">
+        <v>-1</v>
+      </c>
+      <c r="F147" s="15">
+        <v>-1</v>
+      </c>
+      <c r="G147">
+        <v>1.5404332293062699</v>
+      </c>
+      <c r="H147">
+        <v>4.7876816631453902</v>
+      </c>
+      <c r="I147" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J147">
+        <v>14.0315047052979</v>
+      </c>
+      <c r="K147" s="15">
+        <v>-1</v>
+      </c>
+      <c r="L147" s="15">
+        <v>-1</v>
+      </c>
+      <c r="M147" s="15">
+        <v>-1</v>
+      </c>
+      <c r="O147" s="15">
+        <v>1</v>
+      </c>
+      <c r="P147" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q147" s="15">
+        <v>1</v>
+      </c>
+      <c r="R147" s="15">
+        <v>1</v>
+      </c>
+      <c r="S147" s="15">
+        <v>-1</v>
+      </c>
+      <c r="T147" s="15">
+        <v>-1</v>
+      </c>
+      <c r="U147" s="15">
+        <v>-1</v>
+      </c>
+      <c r="V147" s="15">
+        <v>-1</v>
+      </c>
+      <c r="W147" s="15">
+        <v>-1</v>
+      </c>
+      <c r="X147" s="15">
+        <v>-1</v>
+      </c>
+      <c r="Y147" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z147" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA147" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB147" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AC147" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AD147" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AE147" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AF147" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AG147" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="B148" s="15">
+        <v>2007</v>
+      </c>
+      <c r="C148" s="15">
+        <v>2007</v>
+      </c>
+      <c r="E148" s="15">
+        <v>-1</v>
+      </c>
+      <c r="F148" s="15">
+        <v>-1</v>
+      </c>
+      <c r="G148">
+        <v>1.5404332293062699</v>
+      </c>
+      <c r="H148">
+        <v>4.7876816631453902</v>
+      </c>
+      <c r="I148" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J148">
+        <v>14.0315047052979</v>
+      </c>
+      <c r="K148" s="15">
+        <v>-1</v>
+      </c>
+      <c r="L148" s="15">
+        <v>-1</v>
+      </c>
+      <c r="M148" s="15">
+        <v>-1</v>
+      </c>
+      <c r="O148" s="15">
+        <v>1</v>
+      </c>
+      <c r="P148" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q148" s="15">
+        <v>1</v>
+      </c>
+      <c r="R148" s="15">
+        <v>1</v>
+      </c>
+      <c r="S148" s="15">
+        <v>-1</v>
+      </c>
+      <c r="T148" s="15">
+        <v>-1</v>
+      </c>
+      <c r="U148" s="15">
+        <v>-1</v>
+      </c>
+      <c r="V148" s="15">
+        <v>-1</v>
+      </c>
+      <c r="W148" s="15">
+        <v>-1</v>
+      </c>
+      <c r="X148" s="15">
+        <v>-1</v>
+      </c>
+      <c r="Y148" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z148" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA148" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB148" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AC148" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AD148" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AE148" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AF148" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AG148" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="B149" s="15">
+        <v>2008</v>
+      </c>
+      <c r="C149" s="15">
+        <v>2008</v>
+      </c>
+      <c r="E149" s="15">
+        <v>-1</v>
+      </c>
+      <c r="F149" s="15">
+        <v>-1</v>
+      </c>
+      <c r="G149">
+        <v>1.5404332293062699</v>
+      </c>
+      <c r="H149">
+        <v>4.7876816631453902</v>
+      </c>
+      <c r="I149" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J149">
+        <v>14.0315047052979</v>
+      </c>
+      <c r="K149" s="15">
+        <v>-1</v>
+      </c>
+      <c r="L149" s="15">
+        <v>-1</v>
+      </c>
+      <c r="M149" s="15">
+        <v>-1</v>
+      </c>
+      <c r="O149" s="15">
+        <v>1</v>
+      </c>
+      <c r="P149" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q149" s="15">
+        <v>1</v>
+      </c>
+      <c r="R149" s="15">
+        <v>1</v>
+      </c>
+      <c r="S149" s="15">
+        <v>-1</v>
+      </c>
+      <c r="T149" s="15">
+        <v>-1</v>
+      </c>
+      <c r="U149" s="15">
+        <v>-1</v>
+      </c>
+      <c r="V149" s="15">
+        <v>-1</v>
+      </c>
+      <c r="W149" s="15">
+        <v>-1</v>
+      </c>
+      <c r="X149" s="15">
+        <v>-1</v>
+      </c>
+      <c r="Y149" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z149" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA149" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB149" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AC149" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AD149" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AE149" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AF149" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AG149" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="B150" s="15">
+        <v>2009</v>
+      </c>
+      <c r="C150" s="15">
+        <v>2009</v>
+      </c>
+      <c r="E150" s="15">
+        <v>-1</v>
+      </c>
+      <c r="F150" s="15">
+        <v>-1</v>
+      </c>
+      <c r="G150">
+        <v>1.5404332293062699</v>
+      </c>
+      <c r="H150">
+        <v>4.7876816631453902</v>
+      </c>
+      <c r="I150" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J150">
+        <v>14.0315047052979</v>
+      </c>
+      <c r="K150" s="15">
+        <v>-1</v>
+      </c>
+      <c r="L150" s="15">
+        <v>-1</v>
+      </c>
+      <c r="M150" s="15">
+        <v>-1</v>
+      </c>
+      <c r="O150" s="15">
+        <v>1</v>
+      </c>
+      <c r="P150" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q150" s="15">
+        <v>1</v>
+      </c>
+      <c r="R150" s="15">
+        <v>1</v>
+      </c>
+      <c r="S150" s="15">
+        <v>-1</v>
+      </c>
+      <c r="T150" s="15">
+        <v>-1</v>
+      </c>
+      <c r="U150" s="15">
+        <v>-1</v>
+      </c>
+      <c r="V150" s="15">
+        <v>-1</v>
+      </c>
+      <c r="W150" s="15">
+        <v>-1</v>
+      </c>
+      <c r="X150" s="15">
+        <v>-1</v>
+      </c>
+      <c r="Y150" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z150" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA150" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB150" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AC150" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AD150" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AE150" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AF150" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AG150" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="B151" s="15">
+        <v>2010</v>
+      </c>
+      <c r="C151" s="15">
+        <v>2010</v>
+      </c>
+      <c r="E151" s="15">
+        <v>-1</v>
+      </c>
+      <c r="F151" s="15">
+        <v>-1</v>
+      </c>
+      <c r="G151">
+        <v>1.5404332293062699</v>
+      </c>
+      <c r="H151">
+        <v>4.7876816631453902</v>
+      </c>
+      <c r="I151" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J151">
+        <v>14.0315047052979</v>
+      </c>
+      <c r="K151" s="15">
+        <v>-1</v>
+      </c>
+      <c r="L151" s="15">
+        <v>-1</v>
+      </c>
+      <c r="M151" s="15">
+        <v>-1</v>
+      </c>
+      <c r="O151" s="15">
+        <v>1</v>
+      </c>
+      <c r="P151" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q151" s="15">
+        <v>1</v>
+      </c>
+      <c r="R151" s="15">
+        <v>1</v>
+      </c>
+      <c r="S151" s="15">
+        <v>-1</v>
+      </c>
+      <c r="T151" s="15">
+        <v>-1</v>
+      </c>
+      <c r="U151" s="15">
+        <v>-1</v>
+      </c>
+      <c r="V151" s="15">
+        <v>-1</v>
+      </c>
+      <c r="W151" s="15">
+        <v>-1</v>
+      </c>
+      <c r="X151" s="15">
+        <v>-1</v>
+      </c>
+      <c r="Y151" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z151" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA151" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB151" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AC151" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AD151" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AE151" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AF151" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AG151" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="B152" s="15">
+        <v>2011</v>
+      </c>
+      <c r="C152" s="15">
+        <v>2011</v>
+      </c>
+      <c r="E152" s="15">
+        <v>-1</v>
+      </c>
+      <c r="F152" s="15">
+        <v>-1</v>
+      </c>
+      <c r="G152">
+        <v>1.5404332293062699</v>
+      </c>
+      <c r="H152">
+        <v>4.7876816631453902</v>
+      </c>
+      <c r="I152" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J152">
+        <v>14.0315047052979</v>
+      </c>
+      <c r="K152" s="15">
+        <v>-1</v>
+      </c>
+      <c r="L152" s="15">
+        <v>-1</v>
+      </c>
+      <c r="M152" s="15">
+        <v>-1</v>
+      </c>
+      <c r="O152" s="15">
+        <v>1</v>
+      </c>
+      <c r="P152" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q152" s="15">
+        <v>1</v>
+      </c>
+      <c r="R152" s="15">
+        <v>1</v>
+      </c>
+      <c r="S152" s="15">
+        <v>-1</v>
+      </c>
+      <c r="T152" s="15">
+        <v>-1</v>
+      </c>
+      <c r="U152" s="15">
+        <v>-1</v>
+      </c>
+      <c r="V152" s="15">
+        <v>-1</v>
+      </c>
+      <c r="W152" s="15">
+        <v>-1</v>
+      </c>
+      <c r="X152" s="15">
+        <v>-1</v>
+      </c>
+      <c r="Y152" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z152" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA152" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB152" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AC152" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AD152" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AE152" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AF152" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AG152" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="B153" s="15">
+        <v>2012</v>
+      </c>
+      <c r="C153" s="15">
+        <v>2012</v>
+      </c>
+      <c r="E153" s="15">
+        <v>-1</v>
+      </c>
+      <c r="F153" s="15">
+        <v>-1</v>
+      </c>
+      <c r="G153">
+        <v>1.5404332293062699</v>
+      </c>
+      <c r="H153">
+        <v>4.7876816631453902</v>
+      </c>
+      <c r="I153" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J153">
+        <v>14.0315047052979</v>
+      </c>
+      <c r="K153" s="15">
+        <v>-1</v>
+      </c>
+      <c r="L153" s="15">
+        <v>-1</v>
+      </c>
+      <c r="M153" s="15">
+        <v>-1</v>
+      </c>
+      <c r="O153" s="15">
+        <v>1</v>
+      </c>
+      <c r="P153" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q153" s="15">
+        <v>1</v>
+      </c>
+      <c r="R153" s="15">
+        <v>1</v>
+      </c>
+      <c r="S153" s="15">
+        <v>-1</v>
+      </c>
+      <c r="T153" s="15">
+        <v>-1</v>
+      </c>
+      <c r="U153" s="15">
+        <v>-1</v>
+      </c>
+      <c r="V153" s="15">
+        <v>-1</v>
+      </c>
+      <c r="W153" s="15">
+        <v>-1</v>
+      </c>
+      <c r="X153" s="15">
+        <v>-1</v>
+      </c>
+      <c r="Y153" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z153" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA153" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB153" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AC153" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AD153" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AE153" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AF153" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AG153" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="B154" s="15">
+        <v>2013</v>
+      </c>
+      <c r="C154" s="15">
+        <v>2013</v>
+      </c>
+      <c r="E154" s="15">
+        <v>-1</v>
+      </c>
+      <c r="F154" s="15">
+        <v>-1</v>
+      </c>
+      <c r="G154">
+        <v>1.5404332293062699</v>
+      </c>
+      <c r="H154">
+        <v>4.7876816631453902</v>
+      </c>
+      <c r="I154" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J154">
+        <v>14.0315047052979</v>
+      </c>
+      <c r="K154" s="15">
+        <v>-1</v>
+      </c>
+      <c r="L154" s="15">
+        <v>-1</v>
+      </c>
+      <c r="M154" s="15">
+        <v>-1</v>
+      </c>
+      <c r="O154" s="15">
+        <v>1</v>
+      </c>
+      <c r="P154" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q154" s="15">
+        <v>1</v>
+      </c>
+      <c r="R154" s="15">
+        <v>1</v>
+      </c>
+      <c r="S154" s="15">
+        <v>-1</v>
+      </c>
+      <c r="T154" s="15">
+        <v>-1</v>
+      </c>
+      <c r="U154" s="15">
+        <v>-1</v>
+      </c>
+      <c r="V154" s="15">
+        <v>-1</v>
+      </c>
+      <c r="W154" s="15">
+        <v>-1</v>
+      </c>
+      <c r="X154" s="15">
+        <v>-1</v>
+      </c>
+      <c r="Y154" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z154" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA154" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB154" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AC154" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AD154" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AE154" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AF154" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AG154" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="B155" s="15">
+        <v>2014</v>
+      </c>
+      <c r="C155" s="15">
+        <v>2014</v>
+      </c>
+      <c r="E155" s="15">
+        <v>-1</v>
+      </c>
+      <c r="F155" s="15">
+        <v>-1</v>
+      </c>
+      <c r="G155">
+        <v>1.5404332293062699</v>
+      </c>
+      <c r="H155">
+        <v>4.7876816631453902</v>
+      </c>
+      <c r="I155" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J155">
+        <v>14.0315047052979</v>
+      </c>
+      <c r="K155" s="15">
+        <v>-1</v>
+      </c>
+      <c r="L155" s="15">
+        <v>-1</v>
+      </c>
+      <c r="M155" s="15">
+        <v>-1</v>
+      </c>
+      <c r="O155" s="15">
+        <v>1</v>
+      </c>
+      <c r="P155" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q155" s="15">
+        <v>1</v>
+      </c>
+      <c r="R155" s="15">
+        <v>1</v>
+      </c>
+      <c r="S155" s="15">
+        <v>-1</v>
+      </c>
+      <c r="T155" s="15">
+        <v>-1</v>
+      </c>
+      <c r="U155" s="15">
+        <v>-1</v>
+      </c>
+      <c r="V155" s="15">
+        <v>-1</v>
+      </c>
+      <c r="W155" s="15">
+        <v>-1</v>
+      </c>
+      <c r="X155" s="15">
+        <v>-1</v>
+      </c>
+      <c r="Y155" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z155" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA155" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB155" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AC155" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AD155" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AE155" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AF155" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AG155" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B156" s="15">
+        <v>2015</v>
+      </c>
+      <c r="C156" s="15">
+        <v>2015</v>
+      </c>
+      <c r="E156" s="15">
+        <v>-1</v>
+      </c>
+      <c r="F156" s="15">
+        <v>-1</v>
+      </c>
+      <c r="G156">
+        <v>1.5404332293062699</v>
+      </c>
+      <c r="H156">
+        <v>4.7876816631453902</v>
+      </c>
+      <c r="I156" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J156">
+        <v>14.0315047052979</v>
+      </c>
+      <c r="K156" s="15">
+        <v>-1</v>
+      </c>
+      <c r="L156" s="15">
+        <v>-1</v>
+      </c>
+      <c r="M156" s="15">
+        <v>-1</v>
+      </c>
+      <c r="O156" s="15">
+        <v>1</v>
+      </c>
+      <c r="P156" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q156" s="15">
+        <v>1</v>
+      </c>
+      <c r="R156" s="15">
+        <v>1</v>
+      </c>
+      <c r="S156" s="15">
+        <v>-1</v>
+      </c>
+      <c r="T156" s="15">
+        <v>-1</v>
+      </c>
+      <c r="U156" s="15">
+        <v>-1</v>
+      </c>
+      <c r="V156" s="15">
+        <v>-1</v>
+      </c>
+      <c r="W156" s="15">
+        <v>-1</v>
+      </c>
+      <c r="X156" s="15">
+        <v>-1</v>
+      </c>
+      <c r="Y156" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z156" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA156" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB156" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AC156" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AD156" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AE156" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AF156" s="15">
+        <v>-1</v>
+      </c>
+      <c r="AG156" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A157" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8181094-9D46-43E4-BC08-F8B0708403ED}">
   <dimension ref="A1:J129"/>
   <sheetViews>
@@ -7648,7 +13788,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{058DF6E8-1214-426B-BDB4-B4912CB66B9E}">
   <dimension ref="A1:J135"/>
   <sheetViews>
@@ -9059,12 +15199,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{528F748F-2438-463B-BA5E-87C8F32FAD91}">
   <dimension ref="A1:R127"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="A120" sqref="A118:XFD120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10286,7 +16426,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{790C49B8-3B14-4EAF-B724-8E52EEBD60DB}">
   <dimension ref="A1:E129"/>
   <sheetViews>
@@ -11385,7 +17525,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{550DDC27-0C20-441D-A7BC-B4E9F459614A}">
   <dimension ref="A1:R112"/>
   <sheetViews>
@@ -12400,12 +18540,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1CA55F3-71CF-4790-ABCB-757487BDCD56}">
   <dimension ref="A1:T120"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="B103" sqref="B103:C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13951,7 +20091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC1A31D-6BD7-4871-811D-118FFE6482B3}">
   <dimension ref="A1:V114"/>
   <sheetViews>
@@ -15166,1285 +21306,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7EB0C2-FE99-434C-ADBB-D79DBB252CC7}">
-  <dimension ref="A1:T116"/>
-  <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="16.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="36" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7265625" style="10" customWidth="1"/>
-    <col min="3" max="16384" width="16.54296875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-    </row>
-    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="10"/>
-    </row>
-    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="10"/>
-    </row>
-    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="10"/>
-    </row>
-    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="10"/>
-    </row>
-    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="10"/>
-    </row>
-    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" s="10"/>
-    </row>
-    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="10"/>
-    </row>
-    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10"/>
-    </row>
-    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="10"/>
-    </row>
-    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="10"/>
-    </row>
-    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="10"/>
-    </row>
-    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" s="10"/>
-    </row>
-    <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="10"/>
-    </row>
-    <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="10"/>
-    </row>
-    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="10"/>
-    </row>
-    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="10"/>
-    </row>
-    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="10"/>
-    </row>
-    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="10"/>
-    </row>
-    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B20" s="10"/>
-    </row>
-    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="10"/>
-    </row>
-    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="10"/>
-    </row>
-    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="10"/>
-    </row>
-    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="10"/>
-    </row>
-    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="10"/>
-    </row>
-    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="10"/>
-    </row>
-    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="10"/>
-    </row>
-    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="10"/>
-    </row>
-    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="10"/>
-    </row>
-    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="10"/>
-    </row>
-    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="10"/>
-    </row>
-    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="10"/>
-    </row>
-    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="10"/>
-    </row>
-    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="10"/>
-    </row>
-    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" s="10"/>
-    </row>
-    <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="10"/>
-    </row>
-    <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" s="10"/>
-    </row>
-    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="10"/>
-    </row>
-    <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B39" s="10"/>
-    </row>
-    <row r="41" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="5"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="2"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B47" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B48" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B49" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C52" s="2"/>
-    </row>
-    <row r="53" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C53" s="4"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C54" s="2"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55" s="13">
-        <v>1000000000000</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56" s="13">
-        <v>1000000000000</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="5"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="2"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B58" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C58" s="2"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B59" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="5"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B61" s="12">
-        <v>2015</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D61" s="2"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B62" s="12">
-        <v>1</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D62" s="2"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B63" s="12">
-        <v>1</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D63" s="2"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B64" s="12">
-        <v>1</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D64" s="2"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B65" s="12">
-        <v>2015</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D65" s="2"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B66" s="12">
-        <v>12</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D66" s="2"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B67" s="12">
-        <v>31</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D67" s="2"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B68" s="12">
-        <v>24</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D68" s="2"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" s="5"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B70" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B71" s="14">
-        <v>2.4911838084243729E-2</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B72" s="13">
-        <f>0.00000001</f>
-        <v>1E-8</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D72" s="2"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" s="5"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B74" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B75" s="14">
-        <v>2.0648572594225215E-2</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B76" s="13">
-        <v>1.0999999999999999E-8</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D76" s="2"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" s="5"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B78" s="14">
-        <v>1.1841887362491711E-2</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D78" s="16">
-        <v>2.7271220888813726E-2</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B79" s="14">
-        <v>2.2590009128958689E-2</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D79" s="16">
-        <v>2.9679010772171249E-2</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80" s="5"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A81" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B81" s="14">
-        <v>6.2433901191501419E-2</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A82" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B82" s="14">
-        <v>2.5158160216169324E-2</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D82" s="2"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A83" s="5"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A84" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B84" s="12">
-        <f>261*0.08/8760</f>
-        <v>2.3835616438356165E-3</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A85" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B85" s="12">
-        <v>0</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D85" s="2"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A86" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B86" s="12">
-        <v>0</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D86" s="2"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A87" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B87" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-    </row>
-    <row r="88" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B88" s="12">
-        <f>1.01^(1/(24*365.24/12))-1</f>
-        <v>1.3621726294266168E-5</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D88" s="2"/>
-      <c r="E88" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A89" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B89" s="12">
-        <v>6</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A90" s="5"/>
-      <c r="B90" s="12"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A91" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B91" s="12">
-        <v>2.7397260273972604E-6</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D91" s="12">
-        <f>0.3*0.08/8760</f>
-        <v>2.7397260273972604E-6</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A92" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B92" s="12">
-        <f>1100*0.08/8760</f>
-        <v>1.0045662100456621E-2</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A93" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B93" s="12">
-        <f>4600*0.08/8760</f>
-        <v>4.2009132420091327E-2</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A94" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B94" s="12">
-        <v>0</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D94" s="2"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A95" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B95" s="12">
-        <v>0</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D95" s="2"/>
-    </row>
-    <row r="96" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B96" s="12">
-        <v>1.1351367708023474E-6</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D96" s="12">
-        <f>1.01^(1/(24*365.24))-1</f>
-        <v>1.1351367708023474E-6</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A97" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B97" s="12">
-        <v>0.3</v>
-      </c>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-    </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A98" s="5"/>
-      <c r="B98" s="12"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-    </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A99" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B99" s="12">
-        <v>10</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D99" s="2"/>
-    </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="C100" s="10"/>
-    </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="C101" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="102" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B102" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C102" s="4"/>
-    </row>
-    <row r="103" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A103" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F103" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G103" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H103" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="I103" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="J103" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="K103" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="L103" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="M103" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="N103" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="O103" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="P103" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q103" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="R103" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="S103" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="T103" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="B105" s="15">
-        <v>0.6</v>
-      </c>
-      <c r="C105" s="15">
-        <v>0.6</v>
-      </c>
-      <c r="D105" s="15">
-        <v>1</v>
-      </c>
-      <c r="E105" s="15">
-        <v>1</v>
-      </c>
-      <c r="F105" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G105" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="H105" s="15">
-        <v>0.86666666666666003</v>
-      </c>
-      <c r="I105" s="15">
-        <v>0.86666666666666003</v>
-      </c>
-      <c r="J105" s="15">
-        <v>0.4</v>
-      </c>
-      <c r="K105" s="15">
-        <v>0.4</v>
-      </c>
-      <c r="L105" s="15">
-        <v>0.4</v>
-      </c>
-      <c r="M105" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="N105" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="O105" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="P105" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="Q105" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="R105" s="15">
-        <v>1</v>
-      </c>
-      <c r="S105" s="17">
-        <v>100000000</v>
-      </c>
-      <c r="T105" s="17">
-        <v>100000000</v>
-      </c>
-    </row>
-    <row r="106" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="B106" s="15">
-        <v>0.6</v>
-      </c>
-      <c r="C106" s="15">
-        <v>0.6</v>
-      </c>
-      <c r="D106" s="15">
-        <v>1</v>
-      </c>
-      <c r="E106" s="15">
-        <v>1</v>
-      </c>
-      <c r="F106" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G106" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="H106" s="15">
-        <v>0.86666666666666003</v>
-      </c>
-      <c r="I106" s="15">
-        <v>0.86666666666666003</v>
-      </c>
-      <c r="J106" s="15">
-        <v>0.4</v>
-      </c>
-      <c r="K106" s="15">
-        <v>0.4</v>
-      </c>
-      <c r="L106" s="15">
-        <v>0.4</v>
-      </c>
-      <c r="M106" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="N106" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="O106" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="P106" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="Q106" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="R106" s="15">
-        <v>1</v>
-      </c>
-      <c r="S106" s="17">
-        <v>1000000000</v>
-      </c>
-      <c r="T106" s="17">
-        <v>1000000000</v>
-      </c>
-    </row>
-    <row r="107" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="B107" s="15">
-        <v>0.6</v>
-      </c>
-      <c r="C107" s="15">
-        <v>0.6</v>
-      </c>
-      <c r="D107" s="15">
-        <v>1</v>
-      </c>
-      <c r="E107" s="15">
-        <v>1</v>
-      </c>
-      <c r="F107" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G107" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="H107" s="15">
-        <v>0.86666666666666003</v>
-      </c>
-      <c r="I107" s="15">
-        <v>0.86666666666666003</v>
-      </c>
-      <c r="J107" s="15">
-        <v>0.4</v>
-      </c>
-      <c r="K107" s="15">
-        <v>0.4</v>
-      </c>
-      <c r="L107" s="15">
-        <v>0.4</v>
-      </c>
-      <c r="M107" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="N107" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="O107" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="P107" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="Q107" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="R107" s="15">
-        <v>1</v>
-      </c>
-      <c r="S107" s="17">
-        <v>10000000000</v>
-      </c>
-      <c r="T107" s="17">
-        <v>10000000000</v>
-      </c>
-    </row>
-    <row r="108" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="B108" s="15">
-        <v>0.6</v>
-      </c>
-      <c r="C108" s="15">
-        <v>0.6</v>
-      </c>
-      <c r="D108" s="15">
-        <v>1</v>
-      </c>
-      <c r="E108" s="15">
-        <v>1</v>
-      </c>
-      <c r="F108" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G108" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="H108" s="15">
-        <v>0.86666666666666003</v>
-      </c>
-      <c r="I108" s="15">
-        <v>0.86666666666666003</v>
-      </c>
-      <c r="J108" s="15">
-        <v>0.4</v>
-      </c>
-      <c r="K108" s="15">
-        <v>0.4</v>
-      </c>
-      <c r="L108" s="15">
-        <v>0.4</v>
-      </c>
-      <c r="M108" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="N108" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="O108" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="P108" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="Q108" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="R108" s="15">
-        <v>1</v>
-      </c>
-      <c r="S108" s="17">
-        <v>100000000000</v>
-      </c>
-      <c r="T108" s="17">
-        <v>100000000000</v>
-      </c>
-    </row>
-    <row r="109" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="B109" s="15">
-        <v>0.6</v>
-      </c>
-      <c r="C109" s="15">
-        <v>0.6</v>
-      </c>
-      <c r="D109" s="15">
-        <v>1</v>
-      </c>
-      <c r="E109" s="15">
-        <v>1</v>
-      </c>
-      <c r="F109" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G109" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="H109" s="15">
-        <v>0.86666666666666003</v>
-      </c>
-      <c r="I109" s="15">
-        <v>0.86666666666666003</v>
-      </c>
-      <c r="J109" s="15">
-        <v>0.4</v>
-      </c>
-      <c r="K109" s="15">
-        <v>0.4</v>
-      </c>
-      <c r="L109" s="15">
-        <v>0.4</v>
-      </c>
-      <c r="M109" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="N109" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="O109" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="P109" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="Q109" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="R109" s="15">
-        <v>1</v>
-      </c>
-      <c r="S109" s="17">
-        <v>1000000000000</v>
-      </c>
-      <c r="T109" s="17">
-        <v>1000000000000</v>
-      </c>
-    </row>
-    <row r="110" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="B110" s="15">
-        <v>0.6</v>
-      </c>
-      <c r="C110" s="15">
-        <v>0.6</v>
-      </c>
-      <c r="D110" s="15">
-        <v>1</v>
-      </c>
-      <c r="E110" s="15">
-        <v>1</v>
-      </c>
-      <c r="F110" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G110" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="H110" s="15">
-        <v>0.86666666666666003</v>
-      </c>
-      <c r="I110" s="15">
-        <v>0.86666666666666003</v>
-      </c>
-      <c r="J110" s="15">
-        <v>0.4</v>
-      </c>
-      <c r="K110" s="15">
-        <v>0.4</v>
-      </c>
-      <c r="L110" s="15">
-        <v>0.4</v>
-      </c>
-      <c r="M110" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="N110" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="O110" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="P110" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="Q110" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="R110" s="15">
-        <v>1</v>
-      </c>
-      <c r="S110" s="17">
-        <v>10000000000000</v>
-      </c>
-      <c r="T110" s="17">
-        <v>10000000000000</v>
-      </c>
-    </row>
-    <row r="112" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B112" s="11"/>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A116" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>